--- a/tables/all_queries.xlsx
+++ b/tables/all_queries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="316">
   <si>
     <t>database</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Ocean Alkalinisation</t>
   </si>
   <si>
+    <t>Geological Storage</t>
+  </si>
+  <si>
     <t>Ethics &amp; Morals</t>
   </si>
   <si>
@@ -355,6 +358,9 @@
   <si>
     <t xml:space="preserve">1183 NOT 1086_x000D_
 </t>
+  </si>
+  <si>
+    <t>1250 OR 1251</t>
   </si>
   <si>
     <t>330 OR 332</t>
@@ -581,6 +587,12 @@
     <t>TI = ((potential* OR supply OR production OR source* OR resource*) AND (bioenergy OR bio-energy OR (biomass* NEAR/5 energy)) AND (global OR future OR 2050 OR 2100 OR scenario* OR scale))</t>
   </si>
   <si>
+    <t>TITLE((potential OR supply OR production OR source OR resource) AND ((bioenergy OR bio-energy) OR (biomass* W/5 energy)) AND (global OR future OR 2050 OR 2100 OR scenario))</t>
+  </si>
+  <si>
+    <t>1553 OR 1555</t>
+  </si>
+  <si>
     <t>Manually add The 1.5[deg]C Target, Political Implications, and the Role of_x000D_
 BECCS          at 2017-08-24 12:28:05.586530+00:00</t>
   </si>
@@ -824,6 +836,9 @@
   </si>
   <si>
     <t>Missing_RelevantSoils</t>
+  </si>
+  <si>
+    <t>ccs storage final both</t>
   </si>
   <si>
     <t>soil_carbon_sequestration_all</t>
@@ -1023,6 +1038,12 @@
     <t>Manual add A Green Herring: How Current Ocean_x000D_
 Fertilization Regulation Distracts from_x000D_
 Geoengineering Research</t>
+  </si>
+  <si>
+    <t>Bioenergy Scopus</t>
+  </si>
+  <si>
+    <t>Bioenergy Both</t>
   </si>
   <si>
     <t xml:space="preserve">Manual add The 1.5[deg]C Target, Political Implications, and the Role of_x000D_
@@ -1387,7 +1408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1430,10 +1451,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1453,10 +1474,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1476,10 +1497,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1499,10 +1520,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1522,10 +1543,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1545,10 +1566,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1568,10 +1589,10 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1591,10 +1612,10 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1614,10 +1635,10 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1637,10 +1658,10 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1660,10 +1681,10 @@
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1683,10 +1704,10 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1706,10 +1727,10 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1729,10 +1750,10 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1752,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1775,10 +1796,10 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1798,10 +1819,10 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1821,10 +1842,10 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1844,10 +1865,10 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1867,10 +1888,10 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1890,10 +1911,10 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1913,10 +1934,10 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1936,10 +1957,10 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1959,10 +1980,10 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1982,10 +2003,10 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2005,10 +2026,10 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2028,10 +2049,10 @@
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2051,10 +2072,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2074,10 +2095,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2097,10 +2118,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2120,10 +2141,10 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2143,10 +2164,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2166,10 +2187,10 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2189,10 +2210,10 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2212,10 +2233,10 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2235,10 +2256,10 @@
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2258,10 +2279,10 @@
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2281,10 +2302,10 @@
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2304,10 +2325,10 @@
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2327,10 +2348,10 @@
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2350,10 +2371,10 @@
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2373,10 +2394,10 @@
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2396,10 +2417,10 @@
         <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2419,10 +2440,10 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2442,10 +2463,10 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2465,10 +2486,10 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2488,10 +2509,10 @@
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2511,10 +2532,10 @@
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2534,10 +2555,10 @@
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2557,10 +2578,10 @@
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2580,10 +2601,10 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2603,10 +2624,10 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2626,10 +2647,10 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2649,10 +2670,10 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2672,10 +2693,10 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2695,10 +2716,10 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2718,10 +2739,10 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2741,10 +2762,10 @@
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2764,10 +2785,10 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2787,10 +2808,10 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2810,10 +2831,10 @@
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2833,10 +2854,10 @@
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2856,10 +2877,10 @@
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2879,10 +2900,10 @@
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2902,10 +2923,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2925,10 +2946,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2948,10 +2969,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2971,10 +2992,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2994,10 +3015,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3017,10 +3038,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3040,10 +3061,10 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3063,10 +3084,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G73" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3086,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G74" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3109,10 +3130,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G75" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3132,10 +3153,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G76" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3155,10 +3176,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G77" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3178,10 +3199,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3201,10 +3222,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3224,10 +3245,10 @@
         <v>13</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3238,19 +3259,19 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D81">
-        <v>903</v>
+        <v>478</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3261,19 +3282,19 @@
         <v>8</v>
       </c>
       <c r="C82">
-        <v>1316</v>
+        <v>1254</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>903</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3284,7 +3305,7 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -3293,10 +3314,10 @@
         <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G83" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3307,19 +3328,19 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G84" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3330,19 +3351,19 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
         <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G85" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3353,19 +3374,19 @@
         <v>8</v>
       </c>
       <c r="C86">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G86" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3376,19 +3397,19 @@
         <v>8</v>
       </c>
       <c r="C87">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G87" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3399,19 +3420,19 @@
         <v>8</v>
       </c>
       <c r="C88">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G88" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3422,19 +3443,19 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G89" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3445,19 +3466,19 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G90" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3468,19 +3489,19 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G91" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3491,19 +3512,19 @@
         <v>8</v>
       </c>
       <c r="C92">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G92" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3514,19 +3535,19 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G93" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3537,19 +3558,19 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G94" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3560,19 +3581,19 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G95" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3580,22 +3601,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>1425</v>
+        <v>1345</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G96" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3603,22 +3624,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G97" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3626,22 +3647,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>1444</v>
+        <v>1426</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G98" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3652,19 +3673,19 @@
         <v>8</v>
       </c>
       <c r="C99">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3675,19 +3696,19 @@
         <v>8</v>
       </c>
       <c r="C100">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G100" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3698,19 +3719,19 @@
         <v>8</v>
       </c>
       <c r="C101">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G101" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3721,19 +3742,19 @@
         <v>8</v>
       </c>
       <c r="C102">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D102">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G102" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3744,19 +3765,19 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D103">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s">
         <v>18</v>
       </c>
       <c r="F103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G103" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3767,19 +3788,19 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E104" t="s">
         <v>18</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G104" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3790,19 +3811,19 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G105" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3813,19 +3834,19 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G106" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3836,19 +3857,19 @@
         <v>8</v>
       </c>
       <c r="C107">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G107" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3859,19 +3880,19 @@
         <v>8</v>
       </c>
       <c r="C108">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
         <v>18</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G108" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3882,19 +3903,19 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D109">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G109" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3905,19 +3926,19 @@
         <v>8</v>
       </c>
       <c r="C110">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D110">
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G110" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3928,19 +3949,19 @@
         <v>8</v>
       </c>
       <c r="C111">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D111">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G111" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3948,22 +3969,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>1471</v>
+        <v>1458</v>
       </c>
       <c r="D112">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E112" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3971,22 +3992,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D113">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G113" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3994,65 +4015,65 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D114">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G114" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
       <c r="C115">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D115">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G115" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
       <c r="C116">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G116" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4060,22 +4081,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D117">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G117" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4083,22 +4104,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>1493</v>
+        <v>1481</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G118" t="s">
-        <v>281</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4109,19 +4130,19 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F119" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G119" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4132,19 +4153,19 @@
         <v>9</v>
       </c>
       <c r="C120">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F120" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G120" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4155,19 +4176,19 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F121" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G121" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4175,22 +4196,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>1515</v>
+        <v>1496</v>
       </c>
       <c r="D122">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F122" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G122" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4198,22 +4219,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>1515</v>
+      </c>
+      <c r="D123">
         <v>9</v>
       </c>
-      <c r="C123">
-        <v>1516</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
       <c r="E123" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G123" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4224,19 +4245,19 @@
         <v>9</v>
       </c>
       <c r="C124">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G124" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4247,7 +4268,7 @@
         <v>9</v>
       </c>
       <c r="C125">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -4256,10 +4277,10 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G125" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4270,7 +4291,7 @@
         <v>9</v>
       </c>
       <c r="C126">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -4279,10 +4300,10 @@
         <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G126" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4293,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -4302,10 +4323,10 @@
         <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G127" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4316,7 +4337,7 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4325,10 +4346,10 @@
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G128" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4339,19 +4360,19 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G129" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4362,19 +4383,19 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F130" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G130" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4385,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -4394,10 +4415,10 @@
         <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G131" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4408,7 +4429,7 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4417,10 +4438,10 @@
         <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G132" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4431,7 +4452,7 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -4440,10 +4461,10 @@
         <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G133" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4454,7 +4475,7 @@
         <v>9</v>
       </c>
       <c r="C134">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4463,10 +4484,10 @@
         <v>16</v>
       </c>
       <c r="F134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G134" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4477,7 +4498,7 @@
         <v>9</v>
       </c>
       <c r="C135">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -4486,10 +4507,10 @@
         <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G135" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4500,19 +4521,19 @@
         <v>9</v>
       </c>
       <c r="C136">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F136" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G136" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4523,19 +4544,19 @@
         <v>9</v>
       </c>
       <c r="C137">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G137" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4546,7 +4567,7 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4555,10 +4576,10 @@
         <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G138" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4569,7 +4590,7 @@
         <v>9</v>
       </c>
       <c r="C139">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4578,10 +4599,10 @@
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G139" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4592,7 +4613,7 @@
         <v>9</v>
       </c>
       <c r="C140">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4601,10 +4622,10 @@
         <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G140" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4615,7 +4636,7 @@
         <v>9</v>
       </c>
       <c r="C141">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -4624,10 +4645,10 @@
         <v>16</v>
       </c>
       <c r="F141" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G141" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4638,7 +4659,7 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4647,10 +4668,10 @@
         <v>16</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G142" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4661,7 +4682,7 @@
         <v>9</v>
       </c>
       <c r="C143">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -4670,10 +4691,10 @@
         <v>16</v>
       </c>
       <c r="F143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G143" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4684,7 +4705,7 @@
         <v>9</v>
       </c>
       <c r="C144">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -4693,10 +4714,10 @@
         <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G144" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4704,22 +4725,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D145">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4727,22 +4748,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C146">
-        <v>1579</v>
+        <v>1553</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G146" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4750,22 +4771,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C147">
-        <v>1580</v>
+        <v>1555</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G147" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4773,22 +4794,91 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>1556</v>
+      </c>
+      <c r="D148">
+        <v>154</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" t="s">
+        <v>167</v>
+      </c>
+      <c r="G148" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
         <v>9</v>
       </c>
-      <c r="C148">
+      <c r="C149">
+        <v>1579</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
+        <v>168</v>
+      </c>
+      <c r="G149" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>1580</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>169</v>
+      </c>
+      <c r="G150" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151">
         <v>1583</v>
       </c>
-      <c r="D148">
+      <c r="D151">
         <v>1</v>
       </c>
-      <c r="E148" t="s">
-        <v>20</v>
-      </c>
-      <c r="F148" t="s">
-        <v>166</v>
-      </c>
-      <c r="G148" t="s">
-        <v>308</v>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" t="s">
+        <v>170</v>
+      </c>
+      <c r="G151" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/tables/all_queries.xlsx
+++ b/tables/all_queries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="320">
   <si>
     <t>database</t>
   </si>
@@ -358,6 +358,12 @@
   <si>
     <t xml:space="preserve">1183 NOT 1086_x000D_
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS =(((potential OR capacity OR availability OR resource) NEAR/3 ((CO2 OR "carbon dioxide" OR "CO(2)" OR CD) NEAR/3 (storage OR sequestration OR disposal)) AND (geological OR aquifers OR underground OR (coal seams OR coal-bed OR coalbed) OR reservoirs OR subterranean OR ((oil OR gas) NEAR/3 fields) OR saline aquifer OR sedimentary OR formation)) OR (geocapacity)) NOT (TS = (soil OR nano* OR mesoporous OR leak* OR molecul* OR lithium OR hydrate OR catalyst OR (life cycle) OR seismic* OR *fract* OR geochem* OR mineralog* OR sensor OR monitor* OR wettability OR (energy plan) OR gypsum OR electrochem* OR fluvial OR "water injection" OR isotherm OR laboratory)) </t>
+  </si>
+  <si>
+    <t>((TITLE-ABS-KEY ((potential OR capacity OR availability OR resource) W/3 ((co2 OR "carbon dioxide" OR "co(2)" OR cd) W/3 (storage OR sequestration OR disposal))) AND TITLE-ABS-KEY (geological OR aquifers OR underground OR (coal seams OR coal bed OR coalbed) OR reservoirs OR subterranean OR ((oil OR gas) W/3 fields) OR saline aquifer OR sedimentary OR formation) OR overcapacity) AND NOT TITLE-ABS-KEY (soil OR nano* OR mesoporous OR leak* OR molecul* OR lithium OR hydrate OR catalyst OR(life cycle) OR seismic* OR *fract* OR geochem* OR mineralog* OR sensor OR monitor* OR wettability OR (energy plan) OR gypsum OR electrochem* OR fluvial OR "water injection" OR isotherm OR laboratory))</t>
   </si>
   <si>
     <t>1250 OR 1251</t>
@@ -836,6 +842,12 @@
   </si>
   <si>
     <t>Missing_RelevantSoils</t>
+  </si>
+  <si>
+    <t>CCS storage WOS2</t>
+  </si>
+  <si>
+    <t>CCS storage</t>
   </si>
   <si>
     <t>ccs storage final both</t>
@@ -1408,7 +1420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1454,7 +1466,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1477,7 +1489,7 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1500,7 +1512,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1523,7 +1535,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1546,7 +1558,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1569,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1592,7 +1604,7 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1615,7 +1627,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1638,7 +1650,7 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1661,7 +1673,7 @@
         <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1684,7 +1696,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1707,7 +1719,7 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1730,7 +1742,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1753,7 +1765,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1776,7 +1788,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1799,7 +1811,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1822,7 +1834,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1845,7 +1857,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1868,7 +1880,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1891,7 +1903,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1914,7 +1926,7 @@
         <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1937,7 +1949,7 @@
         <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1960,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1983,7 +1995,7 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2006,7 +2018,7 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2029,7 +2041,7 @@
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2052,7 +2064,7 @@
         <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2075,7 +2087,7 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2098,7 +2110,7 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2121,7 +2133,7 @@
         <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2144,7 +2156,7 @@
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2167,7 +2179,7 @@
         <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2190,7 +2202,7 @@
         <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2213,7 +2225,7 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2236,7 +2248,7 @@
         <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2259,7 +2271,7 @@
         <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2282,7 +2294,7 @@
         <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2305,7 +2317,7 @@
         <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2328,7 +2340,7 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2351,7 +2363,7 @@
         <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2374,7 +2386,7 @@
         <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2397,7 +2409,7 @@
         <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2420,7 +2432,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2443,7 +2455,7 @@
         <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2466,7 +2478,7 @@
         <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2489,7 +2501,7 @@
         <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2512,7 +2524,7 @@
         <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2535,7 +2547,7 @@
         <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2558,7 +2570,7 @@
         <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2581,7 +2593,7 @@
         <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2604,7 +2616,7 @@
         <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2627,7 +2639,7 @@
         <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2650,7 +2662,7 @@
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2673,7 +2685,7 @@
         <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2696,7 +2708,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2719,7 +2731,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2742,7 +2754,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2765,7 +2777,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2788,7 +2800,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2811,7 +2823,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2834,7 +2846,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2857,7 +2869,7 @@
         <v>82</v>
       </c>
       <c r="G63" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2880,7 +2892,7 @@
         <v>83</v>
       </c>
       <c r="G64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2903,7 +2915,7 @@
         <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2926,7 +2938,7 @@
         <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2949,7 +2961,7 @@
         <v>86</v>
       </c>
       <c r="G67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2972,7 +2984,7 @@
         <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2995,7 +3007,7 @@
         <v>88</v>
       </c>
       <c r="G69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3018,7 +3030,7 @@
         <v>89</v>
       </c>
       <c r="G70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3041,7 +3053,7 @@
         <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3064,7 +3076,7 @@
         <v>91</v>
       </c>
       <c r="G72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3087,7 +3099,7 @@
         <v>92</v>
       </c>
       <c r="G73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3110,7 +3122,7 @@
         <v>93</v>
       </c>
       <c r="G74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3133,7 +3145,7 @@
         <v>94</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3156,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="G76" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3179,7 +3191,7 @@
         <v>96</v>
       </c>
       <c r="G77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3202,7 +3214,7 @@
         <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3225,7 +3237,7 @@
         <v>98</v>
       </c>
       <c r="G79" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3248,7 +3260,7 @@
         <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3256,13 +3268,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D81">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="E81" t="s">
         <v>20</v>
@@ -3271,7 +3283,7 @@
         <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3279,22 +3291,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D82">
-        <v>903</v>
+        <v>339</v>
       </c>
       <c r="E82" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F82" t="s">
         <v>101</v>
       </c>
       <c r="G82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3305,19 +3317,19 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>1316</v>
+        <v>1252</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>478</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F83" t="s">
         <v>102</v>
       </c>
       <c r="G83" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3328,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <v>1318</v>
+        <v>1254</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>903</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
         <v>103</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3351,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
         <v>16</v>
@@ -3363,7 +3375,7 @@
         <v>104</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3374,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="C86">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86" t="s">
         <v>16</v>
@@ -3386,7 +3398,7 @@
         <v>105</v>
       </c>
       <c r="G86" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3397,19 +3409,19 @@
         <v>8</v>
       </c>
       <c r="C87">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
         <v>106</v>
       </c>
       <c r="G87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3420,19 +3432,19 @@
         <v>8</v>
       </c>
       <c r="C88">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
         <v>107</v>
       </c>
       <c r="G88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3443,10 +3455,10 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -3455,7 +3467,7 @@
         <v>108</v>
       </c>
       <c r="G89" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3466,7 +3478,7 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3478,7 +3490,7 @@
         <v>109</v>
       </c>
       <c r="G90" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3489,19 +3501,19 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
         <v>110</v>
       </c>
       <c r="G91" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3512,19 +3524,19 @@
         <v>8</v>
       </c>
       <c r="C92">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
         <v>111</v>
       </c>
       <c r="G92" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3535,7 +3547,7 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -3547,7 +3559,7 @@
         <v>112</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3558,19 +3570,19 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94" t="s">
         <v>113</v>
       </c>
       <c r="G94" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3581,19 +3593,19 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95" t="s">
         <v>114</v>
       </c>
       <c r="G95" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3604,10 +3616,10 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -3616,7 +3628,7 @@
         <v>115</v>
       </c>
       <c r="G96" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3624,22 +3636,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>1425</v>
+        <v>1342</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
         <v>116</v>
       </c>
       <c r="G97" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3647,22 +3659,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>1426</v>
+        <v>1345</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
         <v>117</v>
       </c>
       <c r="G98" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3670,22 +3682,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>1444</v>
+        <v>1425</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F99" t="s">
         <v>118</v>
       </c>
       <c r="G99" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3693,22 +3705,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>1445</v>
+        <v>1426</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F100" t="s">
         <v>119</v>
       </c>
       <c r="G100" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3719,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="C101">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
         <v>120</v>
       </c>
       <c r="G101" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3742,19 +3754,19 @@
         <v>8</v>
       </c>
       <c r="C102">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
         <v>121</v>
       </c>
       <c r="G102" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3765,19 +3777,19 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D103">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F103" t="s">
         <v>122</v>
       </c>
       <c r="G103" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3788,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D104">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F104" t="s">
         <v>123</v>
       </c>
       <c r="G104" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3811,10 +3823,10 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E105" t="s">
         <v>18</v>
@@ -3823,7 +3835,7 @@
         <v>124</v>
       </c>
       <c r="G105" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3834,19 +3846,19 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F106" t="s">
         <v>125</v>
       </c>
       <c r="G106" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3857,19 +3869,19 @@
         <v>8</v>
       </c>
       <c r="C107">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F107" t="s">
         <v>126</v>
       </c>
       <c r="G107" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3880,19 +3892,19 @@
         <v>8</v>
       </c>
       <c r="C108">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
         <v>127</v>
       </c>
       <c r="G108" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3903,19 +3915,19 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
         <v>128</v>
       </c>
       <c r="G109" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3926,19 +3938,19 @@
         <v>8</v>
       </c>
       <c r="C110">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D110">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F110" t="s">
         <v>129</v>
       </c>
       <c r="G110" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3949,19 +3961,19 @@
         <v>8</v>
       </c>
       <c r="C111">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F111" t="s">
         <v>130</v>
       </c>
       <c r="G111" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3972,19 +3984,19 @@
         <v>8</v>
       </c>
       <c r="C112">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D112">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F112" t="s">
         <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3992,22 +4004,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="D113">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
         <v>132</v>
       </c>
       <c r="G113" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4015,22 +4027,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="D114">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="E114" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
         <v>133</v>
       </c>
       <c r="G114" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4038,13 +4050,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D115">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
@@ -4053,18 +4065,21 @@
         <v>134</v>
       </c>
       <c r="G115" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
       <c r="C116">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="D116">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E116" t="s">
         <v>21</v>
@@ -4073,7 +4088,7 @@
         <v>135</v>
       </c>
       <c r="G116" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4081,45 +4096,42 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F117" t="s">
         <v>136</v>
       </c>
       <c r="G117" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
       <c r="C118">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="D118">
-        <v>326</v>
+        <v>114</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F118" t="s">
         <v>137</v>
       </c>
       <c r="G118" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4130,19 +4142,19 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
         <v>138</v>
       </c>
       <c r="G119" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4150,22 +4162,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="E120" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
         <v>139</v>
       </c>
       <c r="G120" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4176,7 +4188,7 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -4188,7 +4200,7 @@
         <v>140</v>
       </c>
       <c r="G121" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4199,7 +4211,7 @@
         <v>9</v>
       </c>
       <c r="C122">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4211,7 +4223,7 @@
         <v>141</v>
       </c>
       <c r="G122" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4219,22 +4231,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>1515</v>
+        <v>1495</v>
       </c>
       <c r="D123">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F123" t="s">
         <v>142</v>
       </c>
       <c r="G123" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4245,19 +4257,19 @@
         <v>9</v>
       </c>
       <c r="C124">
-        <v>1516</v>
+        <v>1496</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F124" t="s">
         <v>143</v>
       </c>
       <c r="G124" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4265,13 +4277,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>1515</v>
+      </c>
+      <c r="D125">
         <v>9</v>
-      </c>
-      <c r="C125">
-        <v>1517</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
@@ -4280,7 +4292,7 @@
         <v>144</v>
       </c>
       <c r="G125" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4291,19 +4303,19 @@
         <v>9</v>
       </c>
       <c r="C126">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F126" t="s">
         <v>145</v>
       </c>
       <c r="G126" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4314,7 +4326,7 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -4326,7 +4338,7 @@
         <v>146</v>
       </c>
       <c r="G127" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4337,7 +4349,7 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4349,7 +4361,7 @@
         <v>147</v>
       </c>
       <c r="G128" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4360,7 +4372,7 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -4372,7 +4384,7 @@
         <v>148</v>
       </c>
       <c r="G129" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4383,19 +4395,19 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F130" t="s">
         <v>149</v>
       </c>
       <c r="G130" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4406,19 +4418,19 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F131" t="s">
         <v>150</v>
       </c>
       <c r="G131" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4429,19 +4441,19 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>151</v>
       </c>
       <c r="G132" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4452,7 +4464,7 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -4464,7 +4476,7 @@
         <v>152</v>
       </c>
       <c r="G133" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4475,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="C134">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4487,7 +4499,7 @@
         <v>153</v>
       </c>
       <c r="G134" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4498,7 +4510,7 @@
         <v>9</v>
       </c>
       <c r="C135">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -4510,7 +4522,7 @@
         <v>154</v>
       </c>
       <c r="G135" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4521,7 +4533,7 @@
         <v>9</v>
       </c>
       <c r="C136">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -4533,7 +4545,7 @@
         <v>155</v>
       </c>
       <c r="G136" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4544,19 +4556,19 @@
         <v>9</v>
       </c>
       <c r="C137">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
         <v>156</v>
       </c>
       <c r="G137" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4567,7 +4579,7 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4579,7 +4591,7 @@
         <v>157</v>
       </c>
       <c r="G138" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4590,19 +4602,19 @@
         <v>9</v>
       </c>
       <c r="C139">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F139" t="s">
         <v>158</v>
       </c>
       <c r="G139" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4613,7 +4625,7 @@
         <v>9</v>
       </c>
       <c r="C140">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4625,7 +4637,7 @@
         <v>159</v>
       </c>
       <c r="G140" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4636,7 +4648,7 @@
         <v>9</v>
       </c>
       <c r="C141">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -4648,7 +4660,7 @@
         <v>160</v>
       </c>
       <c r="G141" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4659,7 +4671,7 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4671,7 +4683,7 @@
         <v>161</v>
       </c>
       <c r="G142" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4682,7 +4694,7 @@
         <v>9</v>
       </c>
       <c r="C143">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -4694,7 +4706,7 @@
         <v>162</v>
       </c>
       <c r="G143" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4705,7 +4717,7 @@
         <v>9</v>
       </c>
       <c r="C144">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -4717,7 +4729,7 @@
         <v>163</v>
       </c>
       <c r="G144" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4728,7 +4740,7 @@
         <v>9</v>
       </c>
       <c r="C145">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -4740,7 +4752,7 @@
         <v>164</v>
       </c>
       <c r="G145" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4748,22 +4760,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="D146">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
         <v>165</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4771,22 +4783,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C147">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="D147">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F147" t="s">
         <v>166</v>
       </c>
       <c r="G147" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4794,13 +4806,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="D148">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E148" t="s">
         <v>12</v>
@@ -4809,7 +4821,7 @@
         <v>167</v>
       </c>
       <c r="G148" t="s">
-        <v>313</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4817,22 +4829,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C149">
-        <v>1579</v>
+        <v>1555</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
         <v>168</v>
       </c>
       <c r="G149" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4840,22 +4852,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C150">
-        <v>1580</v>
+        <v>1556</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
         <v>169</v>
       </c>
       <c r="G150" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4866,19 +4878,65 @@
         <v>9</v>
       </c>
       <c r="C151">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
         <v>170</v>
       </c>
       <c r="G151" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>1580</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>171</v>
+      </c>
+      <c r="G152" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>1583</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" t="s">
+        <v>172</v>
+      </c>
+      <c r="G153" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/tables/all_queries.xlsx
+++ b/tables/all_queries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="404">
   <si>
     <t>database</t>
   </si>
@@ -46,7 +46,7 @@
     <t>manual</t>
   </si>
   <si>
-    <t>Direct Air Capture</t>
+    <t>DACCS</t>
   </si>
   <si>
     <t>BECCS</t>
@@ -70,7 +70,7 @@
     <t>Enhanced Weathering</t>
   </si>
   <si>
-    <t>Synonyms</t>
+    <t>NETs - General</t>
   </si>
   <si>
     <t>Ocean Alkalinisation</t>
@@ -610,6 +610,52 @@
     <t>Manually add      Biomass Incineration: Scientifically and Ethically Indefensible     at 2017-08-30 12:30:09.366404+00:00</t>
   </si>
   <si>
+    <t>Manually add Underground Geological Storage in SRCCS   at 2017-10-05 12:32:33.883765+00:00</t>
+  </si>
+  <si>
+    <t>Manually add Coalbed gas; Hunt for quality basins goes abroad at 2017-10-05 12:37:34.476313+00:00</t>
+  </si>
+  <si>
+    <t>Manually add CO2 storage in depleted Gas fields at 2017-10-05 12:44:16.588522+00:00</t>
+  </si>
+  <si>
+    <t>Manually add Barriers to overcome the implementation of CO2 capture and storage - Storage in disused oil and gas fields at 2017-10-05 12:56:07.709892+00:00</t>
+  </si>
+  <si>
+    <t>Manually add GeoCapacity Final Report Assessing European Capacity for Geological Storage of Carbon dioxide_x000D_
+        at 2017-10-05 14:35:38.765842+00:00</t>
+  </si>
+  <si>
+    <t>Manually add An Overview of large scale CO2 disposal options_x000D_
+European Capacity for Geological Storage of Carbon dioxide_x000D_
+        at 2017-10-05 14:40:35.769604+00:00</t>
+  </si>
+  <si>
+    <t>Manually add          Bioelectricity vision: achieving 15% of electricity from biomass in OECD countries by 2010    at 2017-10-05 14:54:52.914545+00:00</t>
+  </si>
+  <si>
+    <t>Manually add Global options for biofuels from plantations according to IMAGE simulations_x000D_
+ at 2017-10-05 15:01:39.387484+00:00</t>
+  </si>
+  <si>
+    <t>Manually add Chapter 7 - Energy Resources and Potentialsplantations according to IMAGE simulations_x000D_
+ at 2017-10-05 15:08:21.473105+00:00</t>
+  </si>
+  <si>
+    <t>Manually add   Chapter 7 - energy resources and potentials. In: Global Energy assessment - Toward a Sustainable future_x000D_
+           at 2017-10-05 15:48:56.550631+00:00</t>
+  </si>
+  <si>
+    <t>Manually add Biomass energy production: the Global Potential and the Net Influence on the CO2 Concentration_x000D_
+             at 2017-10-05 16:12:57.255795+00:00</t>
+  </si>
+  <si>
+    <t>uploaded_by_cf97b5d2-3e4d-45f2-8ccb-2201f20936bf</t>
+  </si>
+  <si>
+    <t>[Auto generated]</t>
+  </si>
+  <si>
     <t>NETs_scoping_DAC</t>
   </si>
   <si>
@@ -1063,6 +1109,226 @@
   </si>
   <si>
     <t xml:space="preserve">Manual add      Biomass Incineration: Scientifically and Ethically Indefensible    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual add Underground Geological Storage in SRCCS  </t>
+  </si>
+  <si>
+    <t>Manual add Coalbed gas; Hunt for quality basins goes abroad</t>
+  </si>
+  <si>
+    <t>Manual add CO2 storage in depleted Gas fields</t>
+  </si>
+  <si>
+    <t>Manual add Barriers to overcome the implementation of CO2 capture and storage - Storage in disused oil and gas fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual add GeoCapacity Final Report Assessing European Capacity for Geological Storage of Carbon dioxide_x000D_
+       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual add An Overview of large scale CO2 disposal options_x000D_
+European Capacity for Geological Storage of Carbon dioxide_x000D_
+       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual add          Bioelectricity vision: achieving 15% of electricity from biomass in OECD countries by 2010   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual add Global options for biofuels from plantations according to IMAGE simulations_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual add Chapter 7 - Energy Resources and Potentialsplantations according to IMAGE simulations_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual add   Chapter 7 - energy resources and potentials. In: Global Energy assessment - Toward a Sustainable future_x000D_
+          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual add Biomass energy production: the Global Potential and the Net Influence on the CO2 Concentration_x000D_
+            </t>
+  </si>
+  <si>
+    <t>uploaded_by_Woolf, D</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: NETs - General</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: BECCS</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: Ocean Alkalinisation</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: Bioenergy</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: Afforestation/reforestation</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: Biochar</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: Direct Air Capture</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: Ocean fertilisation</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: Soil Carbon Sequestration</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: Geological Storage</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users: Enhanced Weathering</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: NETs - General</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: BECCS</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Ocean Alkalinisation</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Bioenergy</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Afforestation/reforestation</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Ethics &amp; Morals</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Biochar</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Direct Air Capture</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Ocean fertilisation</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Soil Carbon Sequestration</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Geological Storage</t>
+  </si>
+  <si>
+    <t>New documents uploaded by users, with user tech tags: Enhanced Weathering</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Ocean fertilisation_RD</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Ocean fertilisation_Demandpull</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Ocean fertilisation_Publicaccept</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Soil Carbon Sequestration_RD</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Soil Carbon Sequestration_Scaleup</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Soil Carbon Sequestration_Demandpull</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Soil Carbon Sequestration_Publicaccept</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Geological Storage_RD</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Geological Storage_Scaleup</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Geological Storage_Demandpull</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Geological Storage_Publicaccept</t>
+  </si>
+  <si>
+    <t>Relevant new docs_NETs - General_RD</t>
+  </si>
+  <si>
+    <t>Relevant new docs_NETs - General_Demos</t>
+  </si>
+  <si>
+    <t>Relevant new docs_NETs - General_Scaleup</t>
+  </si>
+  <si>
+    <t>Relevant new docs_NETs - General_Demandpull</t>
+  </si>
+  <si>
+    <t>Relevant new docs_NETs - General_Nichemarkets</t>
+  </si>
+  <si>
+    <t>Relevant new docs_NETs - General_Publicaccept</t>
+  </si>
+  <si>
+    <t>Relevant new docs_BECCS_RD</t>
+  </si>
+  <si>
+    <t>Relevant new docs_BECCS_Scaleup</t>
+  </si>
+  <si>
+    <t>Relevant new docs_BECCS_Demandpull</t>
+  </si>
+  <si>
+    <t>Relevant new docs_BECCS_Nichemarkets</t>
+  </si>
+  <si>
+    <t>Relevant new docs_BECCS_Publicaccept</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Bioenergy_RD</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Bioenergy_Scaleup</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Bioenergy_Demandpull</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Bioenergy_Publicaccept</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Afforestation/reforestation_RD</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Afforestation/reforestation_Scaleup</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Ethics &amp; Morals_RD</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Ethics &amp; Morals_Publicaccept</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Direct Air Capture_RD</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Direct Air Capture_Demos</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Direct Air Capture_Scaleup</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Direct Air Capture_Demandpull</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Direct Air Capture_Nichemarkets</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Direct Air Capture_Publicaccept</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1466,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1489,7 +1755,7 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1512,7 +1778,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1535,7 +1801,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1558,7 +1824,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1581,7 +1847,7 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1604,7 +1870,7 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1627,7 +1893,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1650,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1673,7 +1939,7 @@
         <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1696,7 +1962,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1719,7 +1985,7 @@
         <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1742,7 +2008,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1765,7 +2031,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1788,7 +2054,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1811,7 +2077,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1834,7 +2100,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1857,7 +2123,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1871,7 +2137,7 @@
         <v>374</v>
       </c>
       <c r="D20">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1880,7 +2146,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1903,7 +2169,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1926,7 +2192,7 @@
         <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1949,7 +2215,7 @@
         <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1972,7 +2238,7 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1995,7 +2261,7 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2018,7 +2284,7 @@
         <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2041,7 +2307,7 @@
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2064,7 +2330,7 @@
         <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2087,7 +2353,7 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2110,7 +2376,7 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2133,7 +2399,7 @@
         <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2147,7 +2413,7 @@
         <v>672</v>
       </c>
       <c r="D32">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -2156,7 +2422,7 @@
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2179,7 +2445,7 @@
         <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2202,7 +2468,7 @@
         <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2225,7 +2491,7 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2248,7 +2514,7 @@
         <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2262,7 +2528,7 @@
         <v>896</v>
       </c>
       <c r="D37">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -2271,7 +2537,7 @@
         <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2294,7 +2560,7 @@
         <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2317,7 +2583,7 @@
         <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2340,7 +2606,7 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2363,7 +2629,7 @@
         <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2386,7 +2652,7 @@
         <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2409,7 +2675,7 @@
         <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2432,7 +2698,7 @@
         <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2455,7 +2721,7 @@
         <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2478,7 +2744,7 @@
         <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2501,7 +2767,7 @@
         <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2524,7 +2790,7 @@
         <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2547,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2570,7 +2836,7 @@
         <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2593,7 +2859,7 @@
         <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2616,7 +2882,7 @@
         <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2639,7 +2905,7 @@
         <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2662,7 +2928,7 @@
         <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2685,7 +2951,7 @@
         <v>74</v>
       </c>
       <c r="G55" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2708,7 +2974,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2731,7 +2997,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2754,7 +3020,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2777,7 +3043,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2800,7 +3066,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2823,7 +3089,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2846,7 +3112,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2869,7 +3135,7 @@
         <v>82</v>
       </c>
       <c r="G63" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2892,7 +3158,7 @@
         <v>83</v>
       </c>
       <c r="G64" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2915,7 +3181,7 @@
         <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2938,7 +3204,7 @@
         <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2961,7 +3227,7 @@
         <v>86</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2984,7 +3250,7 @@
         <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3007,7 +3273,7 @@
         <v>88</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3030,7 +3296,7 @@
         <v>89</v>
       </c>
       <c r="G70" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3053,7 +3319,7 @@
         <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3076,7 +3342,7 @@
         <v>91</v>
       </c>
       <c r="G72" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3099,7 +3365,7 @@
         <v>92</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3122,7 +3388,7 @@
         <v>93</v>
       </c>
       <c r="G74" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3145,7 +3411,7 @@
         <v>94</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3168,7 +3434,7 @@
         <v>95</v>
       </c>
       <c r="G76" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3191,7 +3457,7 @@
         <v>96</v>
       </c>
       <c r="G77" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3214,7 +3480,7 @@
         <v>97</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3237,7 +3503,7 @@
         <v>98</v>
       </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3260,7 +3526,7 @@
         <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3283,7 +3549,7 @@
         <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3306,7 +3572,7 @@
         <v>101</v>
       </c>
       <c r="G82" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3329,7 +3595,7 @@
         <v>102</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3352,7 +3618,7 @@
         <v>103</v>
       </c>
       <c r="G84" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3375,7 +3641,7 @@
         <v>104</v>
       </c>
       <c r="G85" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3398,7 +3664,7 @@
         <v>105</v>
       </c>
       <c r="G86" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3421,7 +3687,7 @@
         <v>106</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3444,7 +3710,7 @@
         <v>107</v>
       </c>
       <c r="G88" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3467,7 +3733,7 @@
         <v>108</v>
       </c>
       <c r="G89" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3490,7 +3756,7 @@
         <v>109</v>
       </c>
       <c r="G90" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3513,7 +3779,7 @@
         <v>110</v>
       </c>
       <c r="G91" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3536,7 +3802,7 @@
         <v>111</v>
       </c>
       <c r="G92" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3559,7 +3825,7 @@
         <v>112</v>
       </c>
       <c r="G93" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3582,7 +3848,7 @@
         <v>113</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3605,7 +3871,7 @@
         <v>114</v>
       </c>
       <c r="G95" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3628,7 +3894,7 @@
         <v>115</v>
       </c>
       <c r="G96" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3651,7 +3917,7 @@
         <v>116</v>
       </c>
       <c r="G97" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3674,7 +3940,7 @@
         <v>117</v>
       </c>
       <c r="G98" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3697,7 +3963,7 @@
         <v>118</v>
       </c>
       <c r="G99" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3720,7 +3986,7 @@
         <v>119</v>
       </c>
       <c r="G100" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3743,7 +4009,7 @@
         <v>120</v>
       </c>
       <c r="G101" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3766,7 +4032,7 @@
         <v>121</v>
       </c>
       <c r="G102" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3789,7 +4055,7 @@
         <v>122</v>
       </c>
       <c r="G103" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3812,7 +4078,7 @@
         <v>123</v>
       </c>
       <c r="G104" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3826,7 +4092,7 @@
         <v>1448</v>
       </c>
       <c r="D105">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E105" t="s">
         <v>18</v>
@@ -3835,7 +4101,7 @@
         <v>124</v>
       </c>
       <c r="G105" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3858,7 +4124,7 @@
         <v>125</v>
       </c>
       <c r="G106" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3881,7 +4147,7 @@
         <v>126</v>
       </c>
       <c r="G107" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3904,7 +4170,7 @@
         <v>127</v>
       </c>
       <c r="G108" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3927,7 +4193,7 @@
         <v>128</v>
       </c>
       <c r="G109" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3950,7 +4216,7 @@
         <v>129</v>
       </c>
       <c r="G110" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3973,7 +4239,7 @@
         <v>130</v>
       </c>
       <c r="G111" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3996,7 +4262,7 @@
         <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4019,7 +4285,7 @@
         <v>132</v>
       </c>
       <c r="G113" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4042,7 +4308,7 @@
         <v>133</v>
       </c>
       <c r="G114" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4065,7 +4331,7 @@
         <v>134</v>
       </c>
       <c r="G115" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4088,7 +4354,7 @@
         <v>135</v>
       </c>
       <c r="G116" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4111,7 +4377,7 @@
         <v>136</v>
       </c>
       <c r="G117" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4131,7 +4397,7 @@
         <v>137</v>
       </c>
       <c r="G118" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4154,7 +4420,7 @@
         <v>138</v>
       </c>
       <c r="G119" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4177,7 +4443,7 @@
         <v>139</v>
       </c>
       <c r="G120" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4200,7 +4466,7 @@
         <v>140</v>
       </c>
       <c r="G121" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4223,7 +4489,7 @@
         <v>141</v>
       </c>
       <c r="G122" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4246,7 +4512,7 @@
         <v>142</v>
       </c>
       <c r="G123" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4269,7 +4535,7 @@
         <v>143</v>
       </c>
       <c r="G124" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4292,7 +4558,7 @@
         <v>144</v>
       </c>
       <c r="G125" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4315,7 +4581,7 @@
         <v>145</v>
       </c>
       <c r="G126" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4338,7 +4604,7 @@
         <v>146</v>
       </c>
       <c r="G127" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4361,7 +4627,7 @@
         <v>147</v>
       </c>
       <c r="G128" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4384,7 +4650,7 @@
         <v>148</v>
       </c>
       <c r="G129" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4407,7 +4673,7 @@
         <v>149</v>
       </c>
       <c r="G130" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4430,7 +4696,7 @@
         <v>150</v>
       </c>
       <c r="G131" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4453,7 +4719,7 @@
         <v>151</v>
       </c>
       <c r="G132" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4476,7 +4742,7 @@
         <v>152</v>
       </c>
       <c r="G133" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4499,7 +4765,7 @@
         <v>153</v>
       </c>
       <c r="G134" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4522,7 +4788,7 @@
         <v>154</v>
       </c>
       <c r="G135" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4545,7 +4811,7 @@
         <v>155</v>
       </c>
       <c r="G136" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4568,7 +4834,7 @@
         <v>156</v>
       </c>
       <c r="G137" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4591,7 +4857,7 @@
         <v>157</v>
       </c>
       <c r="G138" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4614,7 +4880,7 @@
         <v>158</v>
       </c>
       <c r="G139" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4637,7 +4903,7 @@
         <v>159</v>
       </c>
       <c r="G140" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4660,7 +4926,7 @@
         <v>160</v>
       </c>
       <c r="G141" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4683,7 +4949,7 @@
         <v>161</v>
       </c>
       <c r="G142" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4706,7 +4972,7 @@
         <v>162</v>
       </c>
       <c r="G143" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4729,7 +4995,7 @@
         <v>163</v>
       </c>
       <c r="G144" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4752,7 +5018,7 @@
         <v>164</v>
       </c>
       <c r="G145" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4775,7 +5041,7 @@
         <v>165</v>
       </c>
       <c r="G146" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4798,7 +5064,7 @@
         <v>166</v>
       </c>
       <c r="G147" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4844,7 +5110,7 @@
         <v>168</v>
       </c>
       <c r="G149" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4867,7 +5133,7 @@
         <v>169</v>
       </c>
       <c r="G150" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4890,7 +5156,7 @@
         <v>170</v>
       </c>
       <c r="G151" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4913,7 +5179,7 @@
         <v>171</v>
       </c>
       <c r="G152" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4936,7 +5202,1463 @@
         <v>172</v>
       </c>
       <c r="G153" t="s">
-        <v>319</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>1586</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" t="s">
+        <v>173</v>
+      </c>
+      <c r="G154" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155">
+        <v>1587</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" t="s">
+        <v>174</v>
+      </c>
+      <c r="G155" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156">
+        <v>1588</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" t="s">
+        <v>175</v>
+      </c>
+      <c r="G156" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157">
+        <v>1589</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" t="s">
+        <v>176</v>
+      </c>
+      <c r="G157" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>1590</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" t="s">
+        <v>177</v>
+      </c>
+      <c r="G158" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159">
+        <v>1591</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" t="s">
+        <v>178</v>
+      </c>
+      <c r="G159" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160">
+        <v>1592</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" t="s">
+        <v>179</v>
+      </c>
+      <c r="G160" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <v>1593</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" t="s">
+        <v>180</v>
+      </c>
+      <c r="G161" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>1594</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" t="s">
+        <v>181</v>
+      </c>
+      <c r="G162" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163">
+        <v>1595</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" t="s">
+        <v>182</v>
+      </c>
+      <c r="G163" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>1596</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" t="s">
+        <v>183</v>
+      </c>
+      <c r="G164" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <v>1655</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" t="s">
+        <v>184</v>
+      </c>
+      <c r="G165" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="C166">
+        <v>2245</v>
+      </c>
+      <c r="D166">
+        <v>24</v>
+      </c>
+      <c r="E166" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" t="s">
+        <v>185</v>
+      </c>
+      <c r="G166" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="C167">
+        <v>2246</v>
+      </c>
+      <c r="D167">
+        <v>20</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>185</v>
+      </c>
+      <c r="G167" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="C168">
+        <v>2247</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>185</v>
+      </c>
+      <c r="G168" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="C169">
+        <v>2248</v>
+      </c>
+      <c r="D169">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" t="s">
+        <v>185</v>
+      </c>
+      <c r="G169" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="C170">
+        <v>2249</v>
+      </c>
+      <c r="D170">
+        <v>42</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>185</v>
+      </c>
+      <c r="G170" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="C171">
+        <v>2251</v>
+      </c>
+      <c r="D171">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" t="s">
+        <v>185</v>
+      </c>
+      <c r="G171" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="C172">
+        <v>2252</v>
+      </c>
+      <c r="D172">
+        <v>47</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
+        <v>185</v>
+      </c>
+      <c r="G172" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="C173">
+        <v>2253</v>
+      </c>
+      <c r="D173">
+        <v>40</v>
+      </c>
+      <c r="E173" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" t="s">
+        <v>185</v>
+      </c>
+      <c r="G173" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="C174">
+        <v>2254</v>
+      </c>
+      <c r="D174">
+        <v>64</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>185</v>
+      </c>
+      <c r="G174" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="C175">
+        <v>2255</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" t="s">
+        <v>185</v>
+      </c>
+      <c r="G175" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="C176">
+        <v>2256</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>17</v>
+      </c>
+      <c r="F176" t="s">
+        <v>185</v>
+      </c>
+      <c r="G176" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="C177">
+        <v>2287</v>
+      </c>
+      <c r="D177">
+        <v>48</v>
+      </c>
+      <c r="E177" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" t="s">
+        <v>185</v>
+      </c>
+      <c r="G177" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="C178">
+        <v>2288</v>
+      </c>
+      <c r="D178">
+        <v>39</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G178" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="C179">
+        <v>2289</v>
+      </c>
+      <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" t="s">
+        <v>185</v>
+      </c>
+      <c r="G179" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="C180">
+        <v>2290</v>
+      </c>
+      <c r="D180">
+        <v>31</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" t="s">
+        <v>185</v>
+      </c>
+      <c r="G180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="C181">
+        <v>2291</v>
+      </c>
+      <c r="D181">
+        <v>48</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" t="s">
+        <v>185</v>
+      </c>
+      <c r="G181" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="C182">
+        <v>2292</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" t="s">
+        <v>185</v>
+      </c>
+      <c r="G182" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="C183">
+        <v>2293</v>
+      </c>
+      <c r="D183">
+        <v>27</v>
+      </c>
+      <c r="E183" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" t="s">
+        <v>185</v>
+      </c>
+      <c r="G183" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="C184">
+        <v>2294</v>
+      </c>
+      <c r="D184">
+        <v>50</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
+        <v>185</v>
+      </c>
+      <c r="G184" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="C185">
+        <v>2295</v>
+      </c>
+      <c r="D185">
+        <v>59</v>
+      </c>
+      <c r="E185" t="s">
+        <v>16</v>
+      </c>
+      <c r="F185" t="s">
+        <v>185</v>
+      </c>
+      <c r="G185" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="C186">
+        <v>2296</v>
+      </c>
+      <c r="D186">
+        <v>76</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
+        <v>185</v>
+      </c>
+      <c r="G186" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="C187">
+        <v>2297</v>
+      </c>
+      <c r="D187">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
+        <v>20</v>
+      </c>
+      <c r="F187" t="s">
+        <v>185</v>
+      </c>
+      <c r="G187" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="C188">
+        <v>2298</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+      <c r="E188" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" t="s">
+        <v>185</v>
+      </c>
+      <c r="G188" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="C189">
+        <v>2646</v>
+      </c>
+      <c r="D189">
+        <v>20</v>
+      </c>
+      <c r="E189" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" t="s">
+        <v>185</v>
+      </c>
+      <c r="G189" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="C190">
+        <v>2649</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190" t="s">
+        <v>185</v>
+      </c>
+      <c r="G190" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="C191">
+        <v>2651</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" t="s">
+        <v>185</v>
+      </c>
+      <c r="G191" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="C192">
+        <v>2653</v>
+      </c>
+      <c r="D192">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
+        <v>185</v>
+      </c>
+      <c r="G192" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="C193">
+        <v>2655</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
+        <v>185</v>
+      </c>
+      <c r="G193" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="C194">
+        <v>2656</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>185</v>
+      </c>
+      <c r="G194" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="C195">
+        <v>2658</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>185</v>
+      </c>
+      <c r="G195" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="C196">
+        <v>2660</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196" t="s">
+        <v>185</v>
+      </c>
+      <c r="G196" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="C197">
+        <v>2662</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197" t="s">
+        <v>20</v>
+      </c>
+      <c r="F197" t="s">
+        <v>185</v>
+      </c>
+      <c r="G197" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="C198">
+        <v>2663</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>20</v>
+      </c>
+      <c r="F198" t="s">
+        <v>185</v>
+      </c>
+      <c r="G198" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="C199">
+        <v>2665</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>20</v>
+      </c>
+      <c r="F199" t="s">
+        <v>185</v>
+      </c>
+      <c r="G199" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="C200">
+        <v>2674</v>
+      </c>
+      <c r="D200">
+        <v>22</v>
+      </c>
+      <c r="E200" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" t="s">
+        <v>185</v>
+      </c>
+      <c r="G200" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="C201">
+        <v>2675</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" t="s">
+        <v>185</v>
+      </c>
+      <c r="G201" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="C202">
+        <v>2676</v>
+      </c>
+      <c r="D202">
+        <v>6</v>
+      </c>
+      <c r="E202" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202" t="s">
+        <v>185</v>
+      </c>
+      <c r="G202" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="C203">
+        <v>2677</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+      <c r="E203" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203" t="s">
+        <v>185</v>
+      </c>
+      <c r="G203" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="C204">
+        <v>2678</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204" t="s">
+        <v>18</v>
+      </c>
+      <c r="F204" t="s">
+        <v>185</v>
+      </c>
+      <c r="G204" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="C205">
+        <v>2679</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205" t="s">
+        <v>18</v>
+      </c>
+      <c r="F205" t="s">
+        <v>185</v>
+      </c>
+      <c r="G205" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="C206">
+        <v>2681</v>
+      </c>
+      <c r="D206">
+        <v>28</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" t="s">
+        <v>185</v>
+      </c>
+      <c r="G206" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="C207">
+        <v>2683</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" t="s">
+        <v>185</v>
+      </c>
+      <c r="G207" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="C208">
+        <v>2684</v>
+      </c>
+      <c r="D208">
+        <v>11</v>
+      </c>
+      <c r="E208" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" t="s">
+        <v>185</v>
+      </c>
+      <c r="G208" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="C209">
+        <v>2685</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" t="s">
+        <v>185</v>
+      </c>
+      <c r="G209" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="C210">
+        <v>2686</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" t="s">
+        <v>185</v>
+      </c>
+      <c r="G210" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="C211">
+        <v>2688</v>
+      </c>
+      <c r="D211">
+        <v>26</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" t="s">
+        <v>185</v>
+      </c>
+      <c r="G211" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="C212">
+        <v>2690</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" t="s">
+        <v>185</v>
+      </c>
+      <c r="G212" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="C213">
+        <v>2691</v>
+      </c>
+      <c r="D213">
+        <v>7</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" t="s">
+        <v>185</v>
+      </c>
+      <c r="G213" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="C214">
+        <v>2693</v>
+      </c>
+      <c r="D214">
+        <v>6</v>
+      </c>
+      <c r="E214" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" t="s">
+        <v>185</v>
+      </c>
+      <c r="G214" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="C215">
+        <v>2695</v>
+      </c>
+      <c r="D215">
+        <v>11</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" t="s">
+        <v>185</v>
+      </c>
+      <c r="G215" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="C216">
+        <v>2697</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" t="s">
+        <v>185</v>
+      </c>
+      <c r="G216" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="C217">
+        <v>2702</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>21</v>
+      </c>
+      <c r="F217" t="s">
+        <v>185</v>
+      </c>
+      <c r="G217" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="C218">
+        <v>2707</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>21</v>
+      </c>
+      <c r="F218" t="s">
+        <v>185</v>
+      </c>
+      <c r="G218" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="C219">
+        <v>2709</v>
+      </c>
+      <c r="D219">
+        <v>27</v>
+      </c>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s">
+        <v>185</v>
+      </c>
+      <c r="G219" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="C220">
+        <v>2710</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" t="s">
+        <v>185</v>
+      </c>
+      <c r="G220" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="C221">
+        <v>2711</v>
+      </c>
+      <c r="D221">
+        <v>6</v>
+      </c>
+      <c r="E221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>185</v>
+      </c>
+      <c r="G221" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="C222">
+        <v>2712</v>
+      </c>
+      <c r="D222">
+        <v>4</v>
+      </c>
+      <c r="E222" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" t="s">
+        <v>185</v>
+      </c>
+      <c r="G222" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="C223">
+        <v>2713</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" t="s">
+        <v>185</v>
+      </c>
+      <c r="G223" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="C224">
+        <v>2714</v>
+      </c>
+      <c r="D224">
+        <v>4</v>
+      </c>
+      <c r="E224" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" t="s">
+        <v>185</v>
+      </c>
+      <c r="G224" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/tables/all_queries.xlsx
+++ b/tables/all_queries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="349">
   <si>
     <t>database</t>
   </si>
@@ -52,9 +52,6 @@
     <t>BECCS</t>
   </si>
   <si>
-    <t>Bioenergy</t>
-  </si>
-  <si>
     <t>Soil Carbon Sequestration</t>
   </si>
   <si>
@@ -76,19 +73,10 @@
     <t>Ocean Alkalinisation</t>
   </si>
   <si>
-    <t>Geological Storage</t>
-  </si>
-  <si>
-    <t>Ethics &amp; Morals</t>
-  </si>
-  <si>
     <t>(TS = (((capture OR extraction OR absorbtion) NEAR/3 (air OR atmosph*)) AND (ambient OR "atmosph* pressure*") AND (CO2 OR carbon)) OR TS = (((captur* OR extract) NEAR/3 (direct* OR "carbon dioxide") NEAR/3 (air OR atmosph*)) AND (CO2 OR carbon)) OR TS = ((*sorbent OR amine) AND capture AND (carbon OR CO2) AND ("ambient air")) OR TS = ((captur* NEAR/3 CO2 NEAR/3 (air OR atmosph*)) AND solar)) NOT TS = (phenolic OR PCB* OR particulate OR NOx OR isotope OR "heat pump" OR polycyclic OR *bacteria* OR lignin OR sink OR pollution OR photosynth* OR biofuel* OR sugar)  NOT TS = ("bioactive equivalent combinatorial components" OR "bandwidth-efficient-channel-coding-scheme" OR "bronchial epithelial cell cultures" OR "california current system" OR comet OR mars OR exoplanet* OR "competition chambers" OR gastric OR (mercury NEAR/3 capture) OR (image NEAR/3 capture) OR "canary current system" OR "heavy metal" OR eicosanoid OR "companion cells" OR "calcium carbonate sand" OR "copper chaperone" OR "commercial cane sugar" OR "Cindoxin reductase" OR "coupled dissolution reprecipitation" OR "carbon dioxide reforming" OR rats OR "complementarity determining regions" OR deoxycytidine)</t>
   </si>
   <si>
     <t>TI = ((potential* OR supply) AND (bioenergy* OR (biomass AND energy)) AND global)</t>
-  </si>
-  <si>
-    <t>TI = ((potential* OR supply OR production OR source* OR resource*) AND (bioenergy OR bio-energy OR (biomass* NEAR/5 energy)) AND (global OR future OR 2050 OR 2100 OR scenario*))</t>
   </si>
   <si>
     <t>TS = ((soil NEAR/3 (carbon OR CO2) NEAR/3 (sequest* OR storage)) AND ("climate change" OR "global warm*") AND (manag* OR practice* OR restoration OR land-use))</t>
@@ -360,15 +348,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TS =(((potential OR capacity OR availability OR resource) NEAR/3 ((CO2 OR "carbon dioxide" OR "CO(2)" OR CD) NEAR/3 (storage OR sequestration OR disposal)) AND (geological OR aquifers OR underground OR (coal seams OR coal-bed OR coalbed) OR reservoirs OR subterranean OR ((oil OR gas) NEAR/3 fields) OR saline aquifer OR sedimentary OR formation)) OR (geocapacity)) NOT (TS = (soil OR nano* OR mesoporous OR leak* OR molecul* OR lithium OR hydrate OR catalyst OR (life cycle) OR seismic* OR *fract* OR geochem* OR mineralog* OR sensor OR monitor* OR wettability OR (energy plan) OR gypsum OR electrochem* OR fluvial OR "water injection" OR isotherm OR laboratory)) </t>
-  </si>
-  <si>
-    <t>((TITLE-ABS-KEY ((potential OR capacity OR availability OR resource) W/3 ((co2 OR "carbon dioxide" OR "co(2)" OR cd) W/3 (storage OR sequestration OR disposal))) AND TITLE-ABS-KEY (geological OR aquifers OR underground OR (coal seams OR coal bed OR coalbed) OR reservoirs OR subterranean OR ((oil OR gas) W/3 fields) OR saline aquifer OR sedimentary OR formation) OR overcapacity) AND NOT TITLE-ABS-KEY (soil OR nano* OR mesoporous OR leak* OR molecul* OR lithium OR hydrate OR catalyst OR(life cycle) OR seismic* OR *fract* OR geochem* OR mineralog* OR sensor OR monitor* OR wettability OR (energy plan) OR gypsum OR electrochem* OR fluvial OR "water injection" OR isotherm OR laboratory))</t>
-  </si>
-  <si>
-    <t>1250 OR 1251</t>
-  </si>
-  <si>
     <t>330 OR 332</t>
   </si>
   <si>
@@ -428,12 +407,6 @@
 </t>
   </si>
   <si>
-    <t>(TI=("Catastrophism toward ‘opening up’ or ‘closing down’? Going beyond the apocalyptic future and ") AND AU=("Asayama S ") AND PY=(2015)) OR (TI=("The ethics of engineering the climate") AND AU=("Baatz C") AND PY=(2016)) OR (TI=("Emancipatory catastrophism: What does it mean to climate change and risk society? ") AND AU=("Beck U ") AND PY=(2015)) OR (TI=("Safety first! Framing and governing climate geoengineering experimentation, ") AND AU=("Bel amy R ") AND PY=(2014)) OR (TI=("‘Maintaining planetary systems’ or ‘concentrating global power’? High stakes in ") AND AU=("Cairns R ") AND PY=(2014)) OR (TI=("Theological and Ethical Perspectives on Climate Engineering: Calming the ") AND AU=("Clingerman  F ") AND PY=(2016)) OR (TI=("Climate justice in a carbon budget") AND AU=("D’McKinnon C ") AND PY=(2015)) OR (TI=("Why ‘global public good’ is a treacherous term, especially for geoengineering") AND AU=("Gardiner S ") AND PY=(2014)) OR (TI=("From ‘go slow’ to ‘gung ho’? Climate engineering discourses in the UK, the ") AND AU=("Harnisch S") AND PY=(2015)) OR (TI=("Healing the climate? Christian ethics and medical models for climate engineering") AND AU=("Hartman LM ") AND PY=(2016)) OR (TI=("The ethics of geoengineering") AND AU=("Hourdequin M ") AND PY=(2015)) OR (TI=("Framing the controversial: Geoengineering in academic literature") AND AU=("Huttunen S ") AND PY=(2014)) OR (TI=("Distinguishing morale hazard from moral hazard in geoengineering") AND AU=("Lockley A ") AND PY=(2016)) OR (TI=("Geoengineering, scientific community, and policymakers: A new proposal for the categorization of ") AND AU=("Pereira JC ") AND PY=(2016)) OR (TI=("Framing an ethics of climate management for the anthropocene") AND AU=("Preston CJ ") AND PY=(2015)) OR (TI=("Climate Justice and Geoengineering") AND AU=("Preston CJ (ed) ") AND PY=(2016)) OR (TI=("Contrasting medium and genre on Wikipedia to open ") AND AU=("Markusson N") AND PY=(2016)) OR (TI=("Rewriting mortality: A theological critique of geoengineering and de-extinction") AND AU=("Skrimshire S ") AND PY=(2016)) OR (TI=("Geoengineering, agent-regret, and the lesser of two evils argument") AND AU=("Svoboda T ") AND PY=(2015))</t>
-  </si>
-  <si>
-    <t>(TITLE("Catastrophism toward ‘opening up’ or ‘closing down’? Going beyond the apocalyptic future and ") AND AUTH("Asayama S ") AND PUBYEAR IS 2015 ) OR (TITLE("The ethics of engineering the climate") AND AUTH("Baatz C") AND PUBYEAR IS 2016 ) OR (TITLE("Emancipatory catastrophism: What does it mean to climate change and risk society? ") AND AUTH("Beck U ") AND PUBYEAR IS 2015 ) OR (TITLE("Safety first! Framing and governing climate geoengineering experimentation, ") AND AUTH("Bel amy R ") AND PUBYEAR IS 2014 ) OR (TITLE("‘Maintaining planetary systems’ or ‘concentrating global power’? High stakes in ") AND AUTH("Cairns R ") AND PUBYEAR IS 2014 ) OR (TITLE("Theological and Ethical Perspectives on Climate Engineering: Calming the ") AND AUTH("Clingerman  F ") AND PUBYEAR IS 2016 ) OR (TITLE("Climate justice in a carbon budget") AND AUTH("D’McKinnon C ") AND PUBYEAR IS 2015 ) OR (TITLE("Why ‘global public good’ is a treacherous term, especially for geoengineering") AND AUTH("Gardiner S ") AND PUBYEAR IS 2014 ) OR (TITLE("From ‘go slow’ to ‘gung ho’? Climate engineering discourses in the UK, the ") AND AUTH("Harnisch S") AND PUBYEAR IS 2015 ) OR (TITLE("Healing the climate? Christian ethics and medical models for climate engineering") AND AUTH("Hartman LM ") AND PUBYEAR IS 2016 ) OR (TITLE("The ethics of geoengineering") AND AUTH("Hourdequin M ") AND PUBYEAR IS 2015 ) OR (TITLE("Framing the controversial: Geoengineering in academic literature") AND AUTH("Huttunen S ") AND PUBYEAR IS 2014 ) OR (TITLE("Distinguishing morale hazard from moral hazard in geoengineering") AND AUTH("Lockley A ") AND PUBYEAR IS 2016 ) OR (TITLE("Geoengineering, scientific community, and policymakers: A new proposal for the categorization of ") AND AUTH("Pereira JC ") AND PUBYEAR IS 2016 ) OR (TITLE("Framing an ethics of climate management for the anthropocene") AND AUTH("Preston CJ ") AND PUBYEAR IS 2015 ) OR (TITLE("Climate Justice and Geoengineering") AND AUTH("Preston CJ (ed) ") AND PUBYEAR IS 2016 ) OR (TITLE("Contrasting medium and genre on Wikipedia to open ") AND AUTH("Markusson N") AND PUBYEAR IS 2016 ) OR (TITLE("Rewriting mortality: A theological critique of geoengineering and de-extinction") AND AUTH("Skrimshire S ") AND PUBYEAR IS 2016 ) OR (TITLE("Geoengineering, agent-regret, and the lesser of two evils argument") AND AUTH("Svoboda T ") AND PUBYEAR IS 2015 )</t>
-  </si>
-  <si>
     <t>1421 OR 1422</t>
   </si>
   <si>
@@ -443,9 +416,6 @@
     <t>1423 OR 1424</t>
   </si>
   <si>
-    <t>1425 OR 1426</t>
-  </si>
-  <si>
     <t>1427 OR 1428</t>
   </si>
   <si>
@@ -476,34 +446,19 @@
     <t>* TECH:1 IS:TRELEVANT</t>
   </si>
   <si>
-    <t xml:space="preserve">TS = (("geoengineer*" OR "negative emission*" OR "carbon dioxide removal") AND ("moral" or "justice" or "ethics")) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TITLE-ABS-KEY(("geoengineer*" OR "negative emission*" OR "carbon dioxide removal") AND ("moral" or "justice" or "ethics")) </t>
-  </si>
-  <si>
-    <t>1471 OR 1472</t>
-  </si>
-  <si>
-    <t>ethic moral justice negative emissions carbon dioxide removal</t>
+    <t>Manually add Assessing ocean alkalinity for carbon sequestration at 2017-07-13 14:31:01.199786+00:00</t>
+  </si>
+  <si>
+    <t>Manually add Assessing ocean alkalinity for carbon sequestration at 2017-07-13 14:31:34.441938+00:00</t>
+  </si>
+  <si>
+    <t>Manually add Assessing ocean alkalinity for carbon sequestration at 2017-07-13 14:32:05.845961+00:00</t>
   </si>
   <si>
     <t>Manually add Direct Air Capture of CO2 with Chemicals: A Technology Assessment for the APS Panel on Public Affairs          at 2017-07-21 13:40:48.012936+00:00</t>
   </si>
   <si>
     <t>* TECH:5</t>
-  </si>
-  <si>
-    <t>Manually add           Geoengineering and Non-Ideal Theory   at 2017-07-26 14:04:12.507194+00:00</t>
-  </si>
-  <si>
-    <t>Manually add     Getting the Bad Out: remediation technologies and respect for others         at 2017-07-26 14:09:18.863860+00:00</t>
-  </si>
-  <si>
-    <t>Manually add             Biofuels: efficiency, ethics, and limits to human appropriation of ecosystem services at 2017-07-26 14:12:07.067573+00:00</t>
-  </si>
-  <si>
-    <t>Manually add             Bioenergy and Land Use: framing the ethical debate at 2017-07-26 14:14:35.608198+00:00</t>
   </si>
   <si>
     <t>TI=(An Approach to Removing Large Quantities of Atmospheric Greenhouse Gases OR Rock’s power to mop up carbon revisited OR Utilisation of carbonating olivine for sustainable soil stabilisation OR New Insights into Potential Capacity of Olivine in Ground Improvement OR Impacts of artiﬁcial ocean alkalinization on the carbon cycle and climate in Earth system simulations OR A natural strategy against climate change. OR The role of forest trees and their mycorrhizal fungi in carbonate rock weathering and its significance for global carbon cycling. OR A Green Herring: How Current Ocean Fertilization Regulation Distracts from Geoengineering Research OR VILLAGE SCIENCE MEETS GLOBAL DISCOURSE: THE HAIDA SALMON RESTORATION CORPORATION’S OCEAN IRON FERTILIZATION EXPERIMENT (CASE STUDY) OR Environmental Solutions via Buoyant Flake Fertilization OR No iron fertilization in the equatorial Pacific Ocean during the last ice age OR Assessing scientific legitimacy: The case of marine geoengineering. OR Enhanced Southern Ocean marine productivity due to fertilization by giant icebergs OR Atmospheric consequences of disruption of the ocean thermocline. OR Enhanced Carbon Sequestration in Oceans: Principles, Strategies, Impacts, and Future Perspectives OR Iron fertilization of the Subantarctic ocean during the last ice age. OR Early response of the northeast subarctic Pacific plankton assemblage to volcanicash fertilization OR High variability in dissolved iron concentrations in the vicinity ofthe Kerguelen Islands (Southern Ocean) OR Origin and fate of particulate and dissolved organic matter in a naturally iron-fertilized region of the Southern Ocean)</t>
@@ -549,6 +504,9 @@
     <t>Manually add Enhanced Carbon Sequestration in Oceans: Principles, Strategies, Impacts, and Future Perspectives at 2017-08-04 09:13:55.745624+00:00</t>
   </si>
   <si>
+    <t>Manually add Early response of the northeast subarctic Pacific plankton assemblage to volcanic ash fertilization at 2017-08-04 09:17:55.244390+00:00</t>
+  </si>
+  <si>
     <t>Manually add Ocean fertilization_Enhanced upwelling at 2017-08-04 09:27:32.626946+00:00</t>
   </si>
   <si>
@@ -590,15 +548,6 @@
 Fertilization Experiment at 2017-08-11 16:10:39.236814+00:00</t>
   </si>
   <si>
-    <t>TI = ((potential* OR supply OR production OR source* OR resource*) AND (bioenergy OR bio-energy OR (biomass* NEAR/5 energy)) AND (global OR future OR 2050 OR 2100 OR scenario* OR scale))</t>
-  </si>
-  <si>
-    <t>TITLE((potential OR supply OR production OR source OR resource) AND ((bioenergy OR bio-energy) OR (biomass* W/5 energy)) AND (global OR future OR 2050 OR 2100 OR scenario))</t>
-  </si>
-  <si>
-    <t>1553 OR 1555</t>
-  </si>
-  <si>
     <t>Manually add The 1.5[deg]C Target, Political Implications, and the Role of_x000D_
 BECCS          at 2017-08-24 12:28:05.586530+00:00</t>
   </si>
@@ -607,49 +556,6 @@
 BECCS          at 2017-08-24 12:28:55.662915+00:00</t>
   </si>
   <si>
-    <t>Manually add      Biomass Incineration: Scientifically and Ethically Indefensible     at 2017-08-30 12:30:09.366404+00:00</t>
-  </si>
-  <si>
-    <t>Manually add Underground Geological Storage in SRCCS   at 2017-10-05 12:32:33.883765+00:00</t>
-  </si>
-  <si>
-    <t>Manually add Coalbed gas; Hunt for quality basins goes abroad at 2017-10-05 12:37:34.476313+00:00</t>
-  </si>
-  <si>
-    <t>Manually add CO2 storage in depleted Gas fields at 2017-10-05 12:44:16.588522+00:00</t>
-  </si>
-  <si>
-    <t>Manually add Barriers to overcome the implementation of CO2 capture and storage - Storage in disused oil and gas fields at 2017-10-05 12:56:07.709892+00:00</t>
-  </si>
-  <si>
-    <t>Manually add GeoCapacity Final Report Assessing European Capacity for Geological Storage of Carbon dioxide_x000D_
-        at 2017-10-05 14:35:38.765842+00:00</t>
-  </si>
-  <si>
-    <t>Manually add An Overview of large scale CO2 disposal options_x000D_
-European Capacity for Geological Storage of Carbon dioxide_x000D_
-        at 2017-10-05 14:40:35.769604+00:00</t>
-  </si>
-  <si>
-    <t>Manually add          Bioelectricity vision: achieving 15% of electricity from biomass in OECD countries by 2010    at 2017-10-05 14:54:52.914545+00:00</t>
-  </si>
-  <si>
-    <t>Manually add Global options for biofuels from plantations according to IMAGE simulations_x000D_
- at 2017-10-05 15:01:39.387484+00:00</t>
-  </si>
-  <si>
-    <t>Manually add Chapter 7 - Energy Resources and Potentialsplantations according to IMAGE simulations_x000D_
- at 2017-10-05 15:08:21.473105+00:00</t>
-  </si>
-  <si>
-    <t>Manually add   Chapter 7 - energy resources and potentials. In: Global Energy assessment - Toward a Sustainable future_x000D_
-           at 2017-10-05 15:48:56.550631+00:00</t>
-  </si>
-  <si>
-    <t>Manually add Biomass energy production: the Global Potential and the Net Influence on the CO2 Concentration_x000D_
-             at 2017-10-05 16:12:57.255795+00:00</t>
-  </si>
-  <si>
     <t>uploaded_by_cf97b5d2-3e4d-45f2-8ccb-2201f20936bf</t>
   </si>
   <si>
@@ -662,9 +568,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>BioEn Potential WoS</t>
-  </si>
-  <si>
     <t>soil_carbon_sequestration</t>
   </si>
   <si>
@@ -890,15 +793,6 @@
     <t>Missing_RelevantSoils</t>
   </si>
   <si>
-    <t>CCS storage WOS2</t>
-  </si>
-  <si>
-    <t>CCS storage</t>
-  </si>
-  <si>
-    <t>ccs storage final both</t>
-  </si>
-  <si>
     <t>soil_carbon_sequestration_all</t>
   </si>
   <si>
@@ -944,12 +838,6 @@
     <t>6F_BECCSPublicacceptMissing</t>
   </si>
   <si>
-    <t>Ethics, framing and discourse analysis_a_wos</t>
-  </si>
-  <si>
-    <t>Ethics, framing and discourse analysis_b_scopus</t>
-  </si>
-  <si>
     <t>DAC_extra</t>
   </si>
   <si>
@@ -959,9 +847,6 @@
     <t>Enhanced weathering_ocean alkalinisation_extra</t>
   </si>
   <si>
-    <t>Ethics, framing and discourse analysis_extra</t>
-  </si>
-  <si>
     <t>GENERAL_extra</t>
   </si>
   <si>
@@ -992,31 +877,10 @@
     <t>BECCS potential</t>
   </si>
   <si>
-    <t>ethics_morals_extra_wos</t>
-  </si>
-  <si>
-    <t>ethics_morals_extra_scopus</t>
-  </si>
-  <si>
-    <t>ethics_morals_extra_all</t>
-  </si>
-  <si>
-    <t>ethics_all</t>
+    <t>Manual add Assessing ocean alkalinity for carbon sequestration</t>
   </si>
   <si>
     <t xml:space="preserve">Manual add Direct Air Capture of CO2 with Chemicals: A Technology Assessment for the APS Panel on Public Affairs         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add           Geoengineering and Non-Ideal Theory  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add     Getting the Bad Out: remediation technologies and respect for others        </t>
-  </si>
-  <si>
-    <t>Manual add             Biofuels: efficiency, ethics, and limits to human appropriation of ecosystem services</t>
-  </si>
-  <si>
-    <t>Manual add             Bioenergy and Land Use: framing the ethical debate</t>
   </si>
   <si>
     <t>Enhanced weathering_ocean alkalinisation and Ocean fertilization_Enhanced upwelling</t>
@@ -1062,6 +926,9 @@
     <t>Manual add Enhanced Carbon Sequestration in Oceans: Principles, Strategies, Impacts, and Future Perspectives</t>
   </si>
   <si>
+    <t>Manual add Early response of the northeast subarctic Pacific plankton assemblage to volcanic ash fertilization</t>
+  </si>
+  <si>
     <t>Manual add Ocean fertilization_Enhanced upwelling</t>
   </si>
   <si>
@@ -1098,59 +965,10 @@
 Geoengineering Research</t>
   </si>
   <si>
-    <t>Bioenergy Scopus</t>
-  </si>
-  <si>
-    <t>Bioenergy Both</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manual add The 1.5[deg]C Target, Political Implications, and the Role of_x000D_
 BECCS         </t>
   </si>
   <si>
-    <t xml:space="preserve">Manual add      Biomass Incineration: Scientifically and Ethically Indefensible    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add Underground Geological Storage in SRCCS  </t>
-  </si>
-  <si>
-    <t>Manual add Coalbed gas; Hunt for quality basins goes abroad</t>
-  </si>
-  <si>
-    <t>Manual add CO2 storage in depleted Gas fields</t>
-  </si>
-  <si>
-    <t>Manual add Barriers to overcome the implementation of CO2 capture and storage - Storage in disused oil and gas fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add GeoCapacity Final Report Assessing European Capacity for Geological Storage of Carbon dioxide_x000D_
-       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add An Overview of large scale CO2 disposal options_x000D_
-European Capacity for Geological Storage of Carbon dioxide_x000D_
-       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add          Bioelectricity vision: achieving 15% of electricity from biomass in OECD countries by 2010   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add Global options for biofuels from plantations according to IMAGE simulations_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add Chapter 7 - Energy Resources and Potentialsplantations according to IMAGE simulations_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add   Chapter 7 - energy resources and potentials. In: Global Energy assessment - Toward a Sustainable future_x000D_
-          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual add Biomass energy production: the Global Potential and the Net Influence on the CO2 Concentration_x000D_
-            </t>
-  </si>
-  <si>
     <t>uploaded_by_Woolf, D</t>
   </si>
   <si>
@@ -1163,9 +981,6 @@
     <t>New documents uploaded by users: Ocean Alkalinisation</t>
   </si>
   <si>
-    <t>New documents uploaded by users: Bioenergy</t>
-  </si>
-  <si>
     <t>New documents uploaded by users: Afforestation/reforestation</t>
   </si>
   <si>
@@ -1181,9 +996,6 @@
     <t>New documents uploaded by users: Soil Carbon Sequestration</t>
   </si>
   <si>
-    <t>New documents uploaded by users: Geological Storage</t>
-  </si>
-  <si>
     <t>New documents uploaded by users: Enhanced Weathering</t>
   </si>
   <si>
@@ -1196,15 +1008,9 @@
     <t>New documents uploaded by users, with user tech tags: Ocean Alkalinisation</t>
   </si>
   <si>
-    <t>New documents uploaded by users, with user tech tags: Bioenergy</t>
-  </si>
-  <si>
     <t>New documents uploaded by users, with user tech tags: Afforestation/reforestation</t>
   </si>
   <si>
-    <t>New documents uploaded by users, with user tech tags: Ethics &amp; Morals</t>
-  </si>
-  <si>
     <t>New documents uploaded by users, with user tech tags: Biochar</t>
   </si>
   <si>
@@ -1217,43 +1023,49 @@
     <t>New documents uploaded by users, with user tech tags: Soil Carbon Sequestration</t>
   </si>
   <si>
-    <t>New documents uploaded by users, with user tech tags: Geological Storage</t>
-  </si>
-  <si>
     <t>New documents uploaded by users, with user tech tags: Enhanced Weathering</t>
   </si>
   <si>
     <t>Relevant new docs_Ocean fertilisation_RD</t>
   </si>
   <si>
+    <t>Relevant new docs_Ocean fertilisation_Demos</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Ocean fertilisation_Scaleup</t>
+  </si>
+  <si>
     <t>Relevant new docs_Ocean fertilisation_Demandpull</t>
   </si>
   <si>
+    <t>Relevant new docs_Ocean fertilisation_Nichemarkets</t>
+  </si>
+  <si>
     <t>Relevant new docs_Ocean fertilisation_Publicaccept</t>
   </si>
   <si>
+    <t>Relevant new docs_Ocean fertilisation_Innovationgeneral</t>
+  </si>
+  <si>
     <t>Relevant new docs_Soil Carbon Sequestration_RD</t>
   </si>
   <si>
+    <t>Relevant new docs_Soil Carbon Sequestration_Demos</t>
+  </si>
+  <si>
     <t>Relevant new docs_Soil Carbon Sequestration_Scaleup</t>
   </si>
   <si>
     <t>Relevant new docs_Soil Carbon Sequestration_Demandpull</t>
   </si>
   <si>
+    <t>Relevant new docs_Soil Carbon Sequestration_Nichemarkets</t>
+  </si>
+  <si>
     <t>Relevant new docs_Soil Carbon Sequestration_Publicaccept</t>
   </si>
   <si>
-    <t>Relevant new docs_Geological Storage_RD</t>
-  </si>
-  <si>
-    <t>Relevant new docs_Geological Storage_Scaleup</t>
-  </si>
-  <si>
-    <t>Relevant new docs_Geological Storage_Demandpull</t>
-  </si>
-  <si>
-    <t>Relevant new docs_Geological Storage_Publicaccept</t>
+    <t>Relevant new docs_Soil Carbon Sequestration_Innovationgeneral</t>
   </si>
   <si>
     <t>Relevant new docs_NETs - General_RD</t>
@@ -1274,9 +1086,15 @@
     <t>Relevant new docs_NETs - General_Publicaccept</t>
   </si>
   <si>
+    <t>Relevant new docs_NETs - General_Innovationgeneral</t>
+  </si>
+  <si>
     <t>Relevant new docs_BECCS_RD</t>
   </si>
   <si>
+    <t>Relevant new docs_BECCS_Demos</t>
+  </si>
+  <si>
     <t>Relevant new docs_BECCS_Scaleup</t>
   </si>
   <si>
@@ -1289,28 +1107,28 @@
     <t>Relevant new docs_BECCS_Publicaccept</t>
   </si>
   <si>
-    <t>Relevant new docs_Bioenergy_RD</t>
-  </si>
-  <si>
-    <t>Relevant new docs_Bioenergy_Scaleup</t>
-  </si>
-  <si>
-    <t>Relevant new docs_Bioenergy_Demandpull</t>
-  </si>
-  <si>
-    <t>Relevant new docs_Bioenergy_Publicaccept</t>
+    <t>Relevant new docs_BECCS_Innovationgeneral</t>
   </si>
   <si>
     <t>Relevant new docs_Afforestation/reforestation_RD</t>
   </si>
   <si>
+    <t>Relevant new docs_Afforestation/reforestation_Demos</t>
+  </si>
+  <si>
     <t>Relevant new docs_Afforestation/reforestation_Scaleup</t>
   </si>
   <si>
-    <t>Relevant new docs_Ethics &amp; Morals_RD</t>
-  </si>
-  <si>
-    <t>Relevant new docs_Ethics &amp; Morals_Publicaccept</t>
+    <t>Relevant new docs_Afforestation/reforestation_Demandpull</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Afforestation/reforestation_Nichemarkets</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Afforestation/reforestation_Publicaccept</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Afforestation/reforestation_Innovationgeneral</t>
   </si>
   <si>
     <t>Relevant new docs_Direct Air Capture_RD</t>
@@ -1329,6 +1147,9 @@
   </si>
   <si>
     <t>Relevant new docs_Direct Air Capture_Publicaccept</t>
+  </si>
+  <si>
+    <t>Relevant new docs_Direct Air Capture_Innovationgeneral</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1729,10 +1550,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1752,10 +1573,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1766,19 +1587,19 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>660</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1786,22 +1607,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D5">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1809,22 +1630,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D6">
-        <v>637</v>
+        <v>966</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1832,22 +1653,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D7">
-        <v>966</v>
+        <v>1271</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1855,22 +1676,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D8">
-        <v>1271</v>
+        <v>591</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1878,22 +1699,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D9">
-        <v>591</v>
+        <v>784</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1901,22 +1722,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D10">
-        <v>784</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1924,22 +1745,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D11">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1947,22 +1768,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D12">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1970,22 +1791,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1993,22 +1814,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2016,22 +1837,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D15">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2039,22 +1860,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D16">
-        <v>396</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2062,22 +1883,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D17">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2085,22 +1906,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D18">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2108,22 +1929,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D19">
-        <v>252</v>
+        <v>389</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2131,22 +1952,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="D20">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2154,22 +1975,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>468</v>
+        <v>561</v>
       </c>
       <c r="D21">
-        <v>299</v>
+        <v>376</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2177,22 +1998,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D22">
-        <v>376</v>
+        <v>863</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2200,22 +2021,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="D23">
-        <v>863</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2223,22 +2044,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D24">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2246,22 +2067,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D25">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2272,19 +2093,19 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="D26">
-        <v>195</v>
+        <v>1486</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2295,19 +2116,19 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="D27">
-        <v>1486</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2315,22 +2136,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="D28">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2338,22 +2159,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D29">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2361,22 +2182,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D30">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2387,19 +2208,19 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="D31">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2410,19 +2231,19 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D32">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2430,22 +2251,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>673</v>
+        <v>884</v>
       </c>
       <c r="D33">
-        <v>454</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2456,19 +2277,19 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D34">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2479,19 +2300,19 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>545</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2499,22 +2320,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="D36">
-        <v>545</v>
+        <v>420</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2525,19 +2346,19 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>896</v>
+        <v>1185</v>
       </c>
       <c r="D37">
-        <v>420</v>
+        <v>698</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2548,19 +2369,19 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D38">
-        <v>698</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2571,19 +2392,19 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D39">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2594,19 +2415,19 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D40">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2617,19 +2438,19 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D41">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2640,19 +2461,19 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>578</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G42" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2663,19 +2484,19 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D43">
-        <v>578</v>
+        <v>1223</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2686,19 +2507,19 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D44">
-        <v>1223</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2709,19 +2530,19 @@
         <v>8</v>
       </c>
       <c r="C45">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D45">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2732,19 +2553,19 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2755,19 +2576,19 @@
         <v>8</v>
       </c>
       <c r="C47">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D47">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2778,19 +2599,19 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G48" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2801,19 +2622,19 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G49" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2824,19 +2645,19 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D50">
-        <v>105</v>
+        <v>358</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G50" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2847,19 +2668,19 @@
         <v>8</v>
       </c>
       <c r="C51">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D51">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2870,19 +2691,19 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D52">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2893,19 +2714,19 @@
         <v>8</v>
       </c>
       <c r="C53">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D53">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2916,19 +2737,19 @@
         <v>8</v>
       </c>
       <c r="C54">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D54">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2939,19 +2760,19 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D55">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2962,19 +2783,19 @@
         <v>8</v>
       </c>
       <c r="C56">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>443</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2985,19 +2806,19 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D57">
-        <v>443</v>
+        <v>964</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3008,19 +2829,19 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D58">
-        <v>964</v>
+        <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3031,19 +2852,19 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D59">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3054,19 +2875,19 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3077,19 +2898,19 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D61">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3100,19 +2921,19 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3123,19 +2944,19 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3146,19 +2967,19 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3169,19 +2990,19 @@
         <v>8</v>
       </c>
       <c r="C65">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D65">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3192,19 +3013,19 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D66">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G66" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3215,19 +3036,19 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D67">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3238,19 +3059,19 @@
         <v>8</v>
       </c>
       <c r="C68">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D68">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3261,19 +3082,19 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D69">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3284,19 +3105,19 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3307,19 +3128,19 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D71">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3330,19 +3151,19 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D72">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3353,19 +3174,19 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="D73">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3376,19 +3197,19 @@
         <v>8</v>
       </c>
       <c r="C74">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D74">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G74" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3399,19 +3220,19 @@
         <v>8</v>
       </c>
       <c r="C75">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D75">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3422,19 +3243,19 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D76">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3445,19 +3266,19 @@
         <v>8</v>
       </c>
       <c r="C77">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3468,19 +3289,19 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D78">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G78" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3491,19 +3312,19 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="D79">
-        <v>245</v>
+        <v>637</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G79" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3514,19 +3335,19 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <v>1241</v>
+        <v>1254</v>
       </c>
       <c r="D80">
-        <v>637</v>
+        <v>903</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G80" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3534,22 +3355,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81">
-        <v>1250</v>
+        <v>1316</v>
       </c>
       <c r="D81">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G81" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3557,22 +3378,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>1251</v>
+        <v>1318</v>
       </c>
       <c r="D82">
-        <v>339</v>
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G82" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3583,19 +3404,19 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>1252</v>
+        <v>1319</v>
       </c>
       <c r="D83">
-        <v>478</v>
+        <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G83" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3606,19 +3427,19 @@
         <v>8</v>
       </c>
       <c r="C84">
-        <v>1254</v>
+        <v>1321</v>
       </c>
       <c r="D84">
-        <v>903</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3629,19 +3450,19 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G85" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3652,19 +3473,19 @@
         <v>8</v>
       </c>
       <c r="C86">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G86" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3675,19 +3496,19 @@
         <v>8</v>
       </c>
       <c r="C87">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G87" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3698,19 +3519,19 @@
         <v>8</v>
       </c>
       <c r="C88">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G88" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3721,19 +3542,19 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>1322</v>
+        <v>1334</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G89" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3744,19 +3565,19 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G90" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3767,19 +3588,19 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>1325</v>
+        <v>1336</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3790,19 +3611,19 @@
         <v>8</v>
       </c>
       <c r="C92">
-        <v>1327</v>
+        <v>1340</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G92" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3813,19 +3634,19 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G93" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3836,19 +3657,19 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>1335</v>
+        <v>1345</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G94" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3859,19 +3680,19 @@
         <v>8</v>
       </c>
       <c r="C95">
-        <v>1336</v>
+        <v>1444</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G95" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3882,19 +3703,19 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <v>1340</v>
+        <v>1445</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G96" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3905,19 +3726,19 @@
         <v>8</v>
       </c>
       <c r="C97">
-        <v>1342</v>
+        <v>1446</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G97" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3928,19 +3749,19 @@
         <v>8</v>
       </c>
       <c r="C98">
-        <v>1345</v>
+        <v>1448</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G98" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3948,22 +3769,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>1425</v>
+        <v>1449</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G99" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3971,22 +3792,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>1426</v>
+        <v>1450</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G100" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3997,19 +3818,19 @@
         <v>8</v>
       </c>
       <c r="C101">
-        <v>1444</v>
+        <v>1451</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G101" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4020,19 +3841,19 @@
         <v>8</v>
       </c>
       <c r="C102">
-        <v>1445</v>
+        <v>1452</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G102" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4043,19 +3864,19 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>1446</v>
+        <v>1453</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G103" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4066,19 +3887,19 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>1447</v>
+        <v>1454</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G104" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4089,19 +3910,19 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>1448</v>
+        <v>1455</v>
       </c>
       <c r="D105">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G105" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4112,19 +3933,19 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>1449</v>
+        <v>1456</v>
       </c>
       <c r="D106">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G106" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4135,19 +3956,19 @@
         <v>8</v>
       </c>
       <c r="C107">
-        <v>1450</v>
+        <v>1458</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G107" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4155,22 +3976,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108">
-        <v>1451</v>
+        <v>1466</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G108" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4178,22 +3999,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109">
-        <v>1452</v>
+        <v>1467</v>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G109" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4201,22 +4022,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110">
-        <v>1453</v>
+        <v>1468</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E110" t="s">
         <v>18</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G110" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4224,22 +4045,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111">
-        <v>1454</v>
+        <v>1480</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G111" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4250,19 +4071,19 @@
         <v>8</v>
       </c>
       <c r="C112">
-        <v>1455</v>
+        <v>1481</v>
       </c>
       <c r="D112">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="E112" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G112" t="s">
-        <v>295</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4270,22 +4091,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>1456</v>
+        <v>1515</v>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G113" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4293,22 +4114,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114">
-        <v>1458</v>
+        <v>1516</v>
       </c>
       <c r="D114">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G114" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4316,22 +4137,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C115">
-        <v>1471</v>
+        <v>1517</v>
       </c>
       <c r="D115">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4339,22 +4160,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>1472</v>
+        <v>1519</v>
       </c>
       <c r="D116">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G116" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4362,42 +4183,45 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117">
-        <v>1473</v>
+        <v>1520</v>
       </c>
       <c r="D117">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G117" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
       <c r="C118">
-        <v>1474</v>
+        <v>1521</v>
       </c>
       <c r="D118">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F118" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G118" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4408,19 +4232,19 @@
         <v>9</v>
       </c>
       <c r="C119">
-        <v>1480</v>
+        <v>1522</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G119" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4428,22 +4252,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120">
-        <v>1481</v>
+        <v>1523</v>
       </c>
       <c r="D120">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F120" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G120" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4454,19 +4278,19 @@
         <v>9</v>
       </c>
       <c r="C121">
-        <v>1493</v>
+        <v>1525</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G121" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4477,19 +4301,19 @@
         <v>9</v>
       </c>
       <c r="C122">
-        <v>1494</v>
+        <v>1526</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G122" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4500,19 +4324,19 @@
         <v>9</v>
       </c>
       <c r="C123">
-        <v>1495</v>
+        <v>1527</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G123" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4523,19 +4347,19 @@
         <v>9</v>
       </c>
       <c r="C124">
-        <v>1496</v>
+        <v>1528</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G124" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4543,22 +4367,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C125">
-        <v>1515</v>
+        <v>1529</v>
       </c>
       <c r="D125">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G125" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4569,19 +4393,19 @@
         <v>9</v>
       </c>
       <c r="C126">
-        <v>1516</v>
+        <v>1530</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G126" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4592,19 +4416,19 @@
         <v>9</v>
       </c>
       <c r="C127">
-        <v>1517</v>
+        <v>1531</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G127" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4615,19 +4439,19 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>1519</v>
+        <v>1536</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F128" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G128" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4638,19 +4462,19 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>1520</v>
+        <v>1537</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F129" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G129" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4661,19 +4485,19 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>1521</v>
+        <v>1538</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F130" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G130" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4684,19 +4508,19 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <v>1522</v>
+        <v>1539</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G131" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4707,19 +4531,19 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <v>1523</v>
+        <v>1540</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F132" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G132" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4730,19 +4554,19 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>1525</v>
+        <v>1541</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G133" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4753,19 +4577,19 @@
         <v>9</v>
       </c>
       <c r="C134">
-        <v>1526</v>
+        <v>1547</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F134" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G134" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4776,19 +4600,19 @@
         <v>9</v>
       </c>
       <c r="C135">
-        <v>1527</v>
+        <v>1548</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G135" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4799,19 +4623,19 @@
         <v>9</v>
       </c>
       <c r="C136">
-        <v>1528</v>
+        <v>1549</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F136" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G136" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4822,19 +4646,19 @@
         <v>9</v>
       </c>
       <c r="C137">
-        <v>1529</v>
+        <v>1579</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G137" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4845,19 +4669,19 @@
         <v>9</v>
       </c>
       <c r="C138">
-        <v>1531</v>
+        <v>1580</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G138" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4868,617 +4692,539 @@
         <v>9</v>
       </c>
       <c r="C139">
-        <v>1536</v>
+        <v>1655</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G139" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>9</v>
-      </c>
       <c r="C140">
-        <v>1537</v>
+        <v>2245</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G140" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
-        <v>9</v>
-      </c>
       <c r="C141">
-        <v>1538</v>
+        <v>2246</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E141" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
-        <v>9</v>
-      </c>
       <c r="C142">
-        <v>1539</v>
+        <v>2247</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F142" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G142" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
-        <v>9</v>
-      </c>
       <c r="C143">
-        <v>1540</v>
+        <v>2249</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E143" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G143" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
-        <v>9</v>
-      </c>
       <c r="C144">
-        <v>1541</v>
+        <v>2251</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G144" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
-        <v>9</v>
-      </c>
       <c r="C145">
-        <v>1547</v>
+        <v>2252</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E145" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G145" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
-        <v>9</v>
-      </c>
       <c r="C146">
-        <v>1548</v>
+        <v>2253</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F146" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G146" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
-        <v>9</v>
-      </c>
       <c r="C147">
-        <v>1549</v>
+        <v>2254</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G147" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
-        <v>6</v>
-      </c>
       <c r="C148">
-        <v>1553</v>
+        <v>2256</v>
       </c>
       <c r="D148">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>7</v>
-      </c>
       <c r="C149">
-        <v>1555</v>
+        <v>2287</v>
       </c>
       <c r="D149">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G149" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
-        <v>8</v>
-      </c>
       <c r="C150">
-        <v>1556</v>
+        <v>2288</v>
       </c>
       <c r="D150">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G150" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
-        <v>9</v>
-      </c>
       <c r="C151">
-        <v>1579</v>
+        <v>2289</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G151" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
-        <v>9</v>
-      </c>
       <c r="C152">
-        <v>1580</v>
+        <v>2291</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G152" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
-        <v>9</v>
-      </c>
       <c r="C153">
-        <v>1583</v>
+        <v>2293</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E153" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G153" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
-        <v>9</v>
-      </c>
       <c r="C154">
-        <v>1586</v>
+        <v>2294</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E154" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G154" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>9</v>
-      </c>
       <c r="C155">
-        <v>1587</v>
+        <v>2295</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E155" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F155" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G155" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>9</v>
-      </c>
       <c r="C156">
-        <v>1588</v>
+        <v>2296</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="E156" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G156" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
-        <v>9</v>
-      </c>
       <c r="C157">
-        <v>1589</v>
+        <v>2298</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G157" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
-        <v>9</v>
-      </c>
       <c r="C158">
-        <v>1590</v>
+        <v>2646</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F158" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G158" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>9</v>
-      </c>
       <c r="C159">
-        <v>1591</v>
+        <v>2647</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F159" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="G159" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
-        <v>9</v>
-      </c>
       <c r="C160">
-        <v>1592</v>
+        <v>2648</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F160" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="G160" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>9</v>
-      </c>
       <c r="C161">
-        <v>1593</v>
+        <v>2649</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F161" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G161" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
-        <v>9</v>
-      </c>
       <c r="C162">
-        <v>1594</v>
+        <v>2650</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F162" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="G162" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
-        <v>9</v>
-      </c>
       <c r="C163">
-        <v>1595</v>
+        <v>2651</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F163" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="G163" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
-        <v>9</v>
-      </c>
       <c r="C164">
-        <v>1596</v>
+        <v>2652</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F164" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="G164" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>9</v>
-      </c>
       <c r="C165">
-        <v>1655</v>
+        <v>2653</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G165" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5486,19 +5232,19 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>2245</v>
+        <v>2654</v>
       </c>
       <c r="D166">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G166" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5506,19 +5252,19 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>2246</v>
+        <v>2655</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G167" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5526,19 +5272,19 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>2247</v>
+        <v>2656</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G168" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5546,19 +5292,19 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>2248</v>
+        <v>2657</v>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E169" t="s">
         <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G169" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5566,19 +5312,19 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>2249</v>
+        <v>2658</v>
       </c>
       <c r="D170">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G170" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5586,19 +5332,19 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>2251</v>
+        <v>2659</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G171" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5606,19 +5352,19 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>2252</v>
+        <v>2674</v>
       </c>
       <c r="D172">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F172" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G172" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5626,19 +5372,19 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>2253</v>
+        <v>2675</v>
       </c>
       <c r="D173">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F173" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G173" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5646,19 +5392,19 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>2254</v>
+        <v>2676</v>
       </c>
       <c r="D174">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F174" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G174" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5666,19 +5412,19 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>2255</v>
+        <v>2677</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F175" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G175" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5686,7 +5432,7 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>2256</v>
+        <v>2678</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -5695,10 +5441,10 @@
         <v>17</v>
       </c>
       <c r="F176" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G176" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5706,19 +5452,19 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>2287</v>
+        <v>2679</v>
       </c>
       <c r="D177">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F177" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G177" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5726,19 +5472,19 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>2288</v>
+        <v>2680</v>
       </c>
       <c r="D178">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F178" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G178" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5746,19 +5492,19 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>2289</v>
+        <v>2681</v>
       </c>
       <c r="D179">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E179" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G179" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5766,19 +5512,19 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>2290</v>
+        <v>2682</v>
       </c>
       <c r="D180">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G180" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5786,19 +5532,19 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>2291</v>
+        <v>2683</v>
       </c>
       <c r="D181">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G181" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5806,19 +5552,19 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>2292</v>
+        <v>2684</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G182" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5826,19 +5572,19 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>2293</v>
+        <v>2685</v>
       </c>
       <c r="D183">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G183" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5846,19 +5592,19 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>2294</v>
+        <v>2686</v>
       </c>
       <c r="D184">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G184" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5866,19 +5612,19 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>2295</v>
+        <v>2687</v>
       </c>
       <c r="D185">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G185" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5886,19 +5632,19 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>2296</v>
+        <v>2695</v>
       </c>
       <c r="D186">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
         <v>13</v>
       </c>
       <c r="F186" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G186" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5906,19 +5652,19 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>2297</v>
+        <v>2696</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G187" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5926,19 +5672,19 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>2298</v>
+        <v>2697</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F188" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G188" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5946,19 +5692,19 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>2646</v>
+        <v>2698</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G189" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5966,19 +5712,19 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>2649</v>
+        <v>2699</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F190" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G190" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5986,19 +5732,19 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>2651</v>
+        <v>2700</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F191" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G191" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6006,19 +5752,19 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>2653</v>
+        <v>2701</v>
       </c>
       <c r="D192">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
       </c>
       <c r="F192" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G192" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6026,19 +5772,19 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>2655</v>
+        <v>2709</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E193" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G193" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6046,19 +5792,19 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>2656</v>
+        <v>2710</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E194" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G194" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6066,19 +5812,19 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>2658</v>
+        <v>2711</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E195" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G195" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6086,19 +5832,19 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>2660</v>
+        <v>2712</v>
       </c>
       <c r="D196">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G196" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6106,19 +5852,19 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>2662</v>
+        <v>2713</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G197" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6126,19 +5872,19 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>2663</v>
+        <v>2714</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G198" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6146,519 +5892,19 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>2665</v>
+        <v>2715</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G199" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="C200">
-        <v>2674</v>
-      </c>
-      <c r="D200">
-        <v>22</v>
-      </c>
-      <c r="E200" t="s">
-        <v>18</v>
-      </c>
-      <c r="F200" t="s">
-        <v>185</v>
-      </c>
-      <c r="G200" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="C201">
-        <v>2675</v>
-      </c>
-      <c r="D201">
-        <v>2</v>
-      </c>
-      <c r="E201" t="s">
-        <v>18</v>
-      </c>
-      <c r="F201" t="s">
-        <v>185</v>
-      </c>
-      <c r="G201" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="C202">
-        <v>2676</v>
-      </c>
-      <c r="D202">
-        <v>6</v>
-      </c>
-      <c r="E202" t="s">
-        <v>18</v>
-      </c>
-      <c r="F202" t="s">
-        <v>185</v>
-      </c>
-      <c r="G202" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="C203">
-        <v>2677</v>
-      </c>
-      <c r="D203">
-        <v>3</v>
-      </c>
-      <c r="E203" t="s">
-        <v>18</v>
-      </c>
-      <c r="F203" t="s">
-        <v>185</v>
-      </c>
-      <c r="G203" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="C204">
-        <v>2678</v>
-      </c>
-      <c r="D204">
-        <v>2</v>
-      </c>
-      <c r="E204" t="s">
-        <v>18</v>
-      </c>
-      <c r="F204" t="s">
-        <v>185</v>
-      </c>
-      <c r="G204" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="C205">
-        <v>2679</v>
-      </c>
-      <c r="D205">
-        <v>4</v>
-      </c>
-      <c r="E205" t="s">
-        <v>18</v>
-      </c>
-      <c r="F205" t="s">
-        <v>185</v>
-      </c>
-      <c r="G205" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="C206">
-        <v>2681</v>
-      </c>
-      <c r="D206">
-        <v>28</v>
-      </c>
-      <c r="E206" t="s">
-        <v>11</v>
-      </c>
-      <c r="F206" t="s">
-        <v>185</v>
-      </c>
-      <c r="G206" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="C207">
-        <v>2683</v>
-      </c>
-      <c r="D207">
-        <v>4</v>
-      </c>
-      <c r="E207" t="s">
-        <v>11</v>
-      </c>
-      <c r="F207" t="s">
-        <v>185</v>
-      </c>
-      <c r="G207" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="C208">
-        <v>2684</v>
-      </c>
-      <c r="D208">
-        <v>11</v>
-      </c>
-      <c r="E208" t="s">
-        <v>11</v>
-      </c>
-      <c r="F208" t="s">
-        <v>185</v>
-      </c>
-      <c r="G208" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="C209">
-        <v>2685</v>
-      </c>
-      <c r="D209">
-        <v>2</v>
-      </c>
-      <c r="E209" t="s">
-        <v>11</v>
-      </c>
-      <c r="F209" t="s">
-        <v>185</v>
-      </c>
-      <c r="G209" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="C210">
-        <v>2686</v>
-      </c>
-      <c r="D210">
-        <v>5</v>
-      </c>
-      <c r="E210" t="s">
-        <v>11</v>
-      </c>
-      <c r="F210" t="s">
-        <v>185</v>
-      </c>
-      <c r="G210" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="C211">
-        <v>2688</v>
-      </c>
-      <c r="D211">
-        <v>26</v>
-      </c>
-      <c r="E211" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" t="s">
-        <v>185</v>
-      </c>
-      <c r="G211" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="C212">
-        <v>2690</v>
-      </c>
-      <c r="D212">
-        <v>1</v>
-      </c>
-      <c r="E212" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212" t="s">
-        <v>185</v>
-      </c>
-      <c r="G212" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="C213">
-        <v>2691</v>
-      </c>
-      <c r="D213">
-        <v>7</v>
-      </c>
-      <c r="E213" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" t="s">
-        <v>185</v>
-      </c>
-      <c r="G213" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="C214">
-        <v>2693</v>
-      </c>
-      <c r="D214">
-        <v>6</v>
-      </c>
-      <c r="E214" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" t="s">
-        <v>185</v>
-      </c>
-      <c r="G214" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="C215">
-        <v>2695</v>
-      </c>
-      <c r="D215">
-        <v>11</v>
-      </c>
-      <c r="E215" t="s">
-        <v>14</v>
-      </c>
-      <c r="F215" t="s">
-        <v>185</v>
-      </c>
-      <c r="G215" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="C216">
-        <v>2697</v>
-      </c>
-      <c r="D216">
-        <v>1</v>
-      </c>
-      <c r="E216" t="s">
-        <v>14</v>
-      </c>
-      <c r="F216" t="s">
-        <v>185</v>
-      </c>
-      <c r="G216" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="C217">
-        <v>2702</v>
-      </c>
-      <c r="D217">
-        <v>1</v>
-      </c>
-      <c r="E217" t="s">
-        <v>21</v>
-      </c>
-      <c r="F217" t="s">
-        <v>185</v>
-      </c>
-      <c r="G217" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="C218">
-        <v>2707</v>
-      </c>
-      <c r="D218">
-        <v>1</v>
-      </c>
-      <c r="E218" t="s">
-        <v>21</v>
-      </c>
-      <c r="F218" t="s">
-        <v>185</v>
-      </c>
-      <c r="G218" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="C219">
-        <v>2709</v>
-      </c>
-      <c r="D219">
-        <v>27</v>
-      </c>
-      <c r="E219" t="s">
-        <v>10</v>
-      </c>
-      <c r="F219" t="s">
-        <v>185</v>
-      </c>
-      <c r="G219" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="C220">
-        <v>2710</v>
-      </c>
-      <c r="D220">
-        <v>2</v>
-      </c>
-      <c r="E220" t="s">
-        <v>10</v>
-      </c>
-      <c r="F220" t="s">
-        <v>185</v>
-      </c>
-      <c r="G220" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="C221">
-        <v>2711</v>
-      </c>
-      <c r="D221">
-        <v>6</v>
-      </c>
-      <c r="E221" t="s">
-        <v>10</v>
-      </c>
-      <c r="F221" t="s">
-        <v>185</v>
-      </c>
-      <c r="G221" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="C222">
-        <v>2712</v>
-      </c>
-      <c r="D222">
-        <v>4</v>
-      </c>
-      <c r="E222" t="s">
-        <v>10</v>
-      </c>
-      <c r="F222" t="s">
-        <v>185</v>
-      </c>
-      <c r="G222" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="C223">
-        <v>2713</v>
-      </c>
-      <c r="D223">
-        <v>2</v>
-      </c>
-      <c r="E223" t="s">
-        <v>10</v>
-      </c>
-      <c r="F223" t="s">
-        <v>185</v>
-      </c>
-      <c r="G223" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="C224">
-        <v>2714</v>
-      </c>
-      <c r="D224">
-        <v>4</v>
-      </c>
-      <c r="E224" t="s">
-        <v>10</v>
-      </c>
-      <c r="F224" t="s">
-        <v>185</v>
-      </c>
-      <c r="G224" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
